--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/5/flowCurve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/5/flowCurve.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>942.4574782903799</v>
+        <v>644.9802600023257</v>
       </c>
       <c r="C2" t="n">
-        <v>942457478.2903799</v>
+        <v>644980260.0023258</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0.002</v>
       </c>
       <c r="B3" t="n">
-        <v>1068.577756230367</v>
+        <v>772.7774784851473</v>
       </c>
       <c r="C3" t="n">
-        <v>1068577756.230367</v>
+        <v>772777478.4851474</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0.004</v>
       </c>
       <c r="B4" t="n">
-        <v>1130.4421832097</v>
+        <v>824.4510635511281</v>
       </c>
       <c r="C4" t="n">
-        <v>1130442183.2097</v>
+        <v>824451063.551128</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.006</v>
       </c>
       <c r="B5" t="n">
-        <v>1172.727249532062</v>
+        <v>858.4077642887869</v>
       </c>
       <c r="C5" t="n">
-        <v>1172727249.532062</v>
+        <v>858407764.2887869</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.008</v>
       </c>
       <c r="B6" t="n">
-        <v>1205.191883788324</v>
+        <v>884.0219448140957</v>
       </c>
       <c r="C6" t="n">
-        <v>1205191883.788324</v>
+        <v>884021944.8140957</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.01</v>
       </c>
       <c r="B7" t="n">
-        <v>1231.688236687787</v>
+        <v>904.7180935088882</v>
       </c>
       <c r="C7" t="n">
-        <v>1231688236.687787</v>
+        <v>904718093.5088881</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.012</v>
       </c>
       <c r="B8" t="n">
-        <v>1254.150471103926</v>
+        <v>922.1498714346385</v>
       </c>
       <c r="C8" t="n">
-        <v>1254150471.103926</v>
+        <v>922149871.4346385</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.014</v>
       </c>
       <c r="B9" t="n">
-        <v>1273.693232885652</v>
+        <v>937.247692086774</v>
       </c>
       <c r="C9" t="n">
-        <v>1273693232.885652</v>
+        <v>937247692.086774</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.016</v>
       </c>
       <c r="B10" t="n">
-        <v>1291.019820709349</v>
+        <v>950.5890894803842</v>
       </c>
       <c r="C10" t="n">
-        <v>1291019820.709348</v>
+        <v>950589089.4803842</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.018</v>
       </c>
       <c r="B11" t="n">
-        <v>1306.603563771854</v>
+        <v>962.5581542214842</v>
       </c>
       <c r="C11" t="n">
-        <v>1306603563.771854</v>
+        <v>962558154.2214842</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.02</v>
       </c>
       <c r="B12" t="n">
-        <v>1320.778822392391</v>
+        <v>973.4237619309746</v>
       </c>
       <c r="C12" t="n">
-        <v>1320778822.39239</v>
+        <v>973423761.9309746</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.022</v>
       </c>
       <c r="B13" t="n">
-        <v>1333.79087321624</v>
+        <v>983.3817504798702</v>
       </c>
       <c r="C13" t="n">
-        <v>1333790873.21624</v>
+        <v>983381750.4798702</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.024</v>
       </c>
       <c r="B14" t="n">
-        <v>1345.825174077916</v>
+        <v>992.5793460160829</v>
       </c>
       <c r="C14" t="n">
-        <v>1345825174.077916</v>
+        <v>992579346.0160829</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.026</v>
       </c>
       <c r="B15" t="n">
-        <v>1357.025479617055</v>
+        <v>1001.130128021309</v>
       </c>
       <c r="C15" t="n">
-        <v>1357025479.617055</v>
+        <v>1001130128.021309</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.028</v>
       </c>
       <c r="B16" t="n">
-        <v>1367.505556082762</v>
+        <v>1009.123625295065</v>
       </c>
       <c r="C16" t="n">
-        <v>1367505556.082762</v>
+        <v>1009123625.295065</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.03</v>
       </c>
       <c r="B17" t="n">
-        <v>1377.357036763075</v>
+        <v>1016.631705360383</v>
       </c>
       <c r="C17" t="n">
-        <v>1377357036.763075</v>
+        <v>1016631705.360383</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.032</v>
       </c>
       <c r="B18" t="n">
-        <v>1386.65485326982</v>
+        <v>1023.712965793924</v>
       </c>
       <c r="C18" t="n">
-        <v>1386654853.26982</v>
+        <v>1023712965.793924</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.034</v>
       </c>
       <c r="B19" t="n">
-        <v>1395.461090470727</v>
+        <v>1030.415835074256</v>
       </c>
       <c r="C19" t="n">
-        <v>1395461090.470727</v>
+        <v>1030415835.074256</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.036</v>
       </c>
       <c r="B20" t="n">
-        <v>1403.827785384533</v>
+        <v>1036.780813959426</v>
       </c>
       <c r="C20" t="n">
-        <v>1403827785.384533</v>
+        <v>1036780813.959426</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.038</v>
       </c>
       <c r="B21" t="n">
-        <v>1411.799000073116</v>
+        <v>1042.842129006582</v>
       </c>
       <c r="C21" t="n">
-        <v>1411799000.073116</v>
+        <v>1042842129.006582</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.04</v>
       </c>
       <c r="B22" t="n">
-        <v>1419.412383968347</v>
+        <v>1048.628974528918</v>
       </c>
       <c r="C22" t="n">
-        <v>1419412383.968347</v>
+        <v>1048628974.528918</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.042</v>
       </c>
       <c r="B23" t="n">
-        <v>1426.700369862549</v>
+        <v>1054.166460423578</v>
       </c>
       <c r="C23" t="n">
-        <v>1426700369.862549</v>
+        <v>1054166460.423578</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.044</v>
       </c>
       <c r="B24" t="n">
-        <v>1433.691102305676</v>
+        <v>1059.476345911466</v>
       </c>
       <c r="C24" t="n">
-        <v>1433691102.305676</v>
+        <v>1059476345.911466</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0.046</v>
       </c>
       <c r="B25" t="n">
-        <v>1440.409167376797</v>
+        <v>1064.577614871594</v>
       </c>
       <c r="C25" t="n">
-        <v>1440409167.376797</v>
+        <v>1064577614.871594</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.048</v>
       </c>
       <c r="B26" t="n">
-        <v>1446.876172873817</v>
+        <v>1069.486932225221</v>
       </c>
       <c r="C26" t="n">
-        <v>1446876172.873817</v>
+        <v>1069486932.225221</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.05</v>
       </c>
       <c r="B27" t="n">
-        <v>1453.111214368246</v>
+        <v>1074.21900979398</v>
       </c>
       <c r="C27" t="n">
-        <v>1453111214.368246</v>
+        <v>1074219009.79398</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.052</v>
       </c>
       <c r="B28" t="n">
-        <v>1459.131253124975</v>
+        <v>1078.786902419662</v>
       </c>
       <c r="C28" t="n">
-        <v>1459131253.124975</v>
+        <v>1078786902.419662</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.054</v>
       </c>
       <c r="B29" t="n">
-        <v>1464.951425216115</v>
+        <v>1083.202249758264</v>
       </c>
       <c r="C29" t="n">
-        <v>1464951425.216115</v>
+        <v>1083202249.758264</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.056</v>
       </c>
       <c r="B30" t="n">
-        <v>1470.585296376855</v>
+        <v>1087.47547532002</v>
       </c>
       <c r="C30" t="n">
-        <v>1470585296.376855</v>
+        <v>1087475475.32002</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.058</v>
       </c>
       <c r="B31" t="n">
-        <v>1476.045073677582</v>
+        <v>1091.615951544157</v>
       </c>
       <c r="C31" t="n">
-        <v>1476045073.677582</v>
+        <v>1091615951.544157</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.06</v>
       </c>
       <c r="B32" t="n">
-        <v>1481.341782530905</v>
+        <v>1095.632137654828</v>
       </c>
       <c r="C32" t="n">
-        <v>1481341782.530905</v>
+        <v>1095632137.654828</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.062</v>
       </c>
       <c r="B33" t="n">
-        <v>1486.485415650122</v>
+        <v>1099.531695528136</v>
       </c>
       <c r="C33" t="n">
-        <v>1486485415.650122</v>
+        <v>1099531695.528136</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0.064</v>
       </c>
       <c r="B34" t="n">
-        <v>1491.485059144619</v>
+        <v>1103.321587661698</v>
       </c>
       <c r="C34" t="n">
-        <v>1491485059.144619</v>
+        <v>1103321587.661698</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0.066</v>
       </c>
       <c r="B35" t="n">
-        <v>1496.348999850425</v>
+        <v>1107.008160474894</v>
       </c>
       <c r="C35" t="n">
-        <v>1496348999.850425</v>
+        <v>1107008160.474894</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>0.068</v>
       </c>
       <c r="B36" t="n">
-        <v>1501.084817160107</v>
+        <v>1110.597215506993</v>
       </c>
       <c r="C36" t="n">
-        <v>1501084817.160107</v>
+        <v>1110597215.506993</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>1505.699461971057</v>
+        <v>1114.094070569968</v>
       </c>
       <c r="C37" t="n">
-        <v>1505699461.971057</v>
+        <v>1114094070.569968</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1510.19932486797</v>
+        <v>1117.503612515323</v>
       </c>
       <c r="C38" t="n">
-        <v>1510199324.86797</v>
+        <v>1117503612.515323</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>0.074</v>
       </c>
       <c r="B39" t="n">
-        <v>1514.590295259827</v>
+        <v>1120.830342962362</v>
       </c>
       <c r="C39" t="n">
-        <v>1514590295.259827</v>
+        <v>1120830342.962362</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>0.076</v>
       </c>
       <c r="B40" t="n">
-        <v>1518.87781287862</v>
+        <v>1124.07841808879</v>
       </c>
       <c r="C40" t="n">
-        <v>1518877812.87862</v>
+        <v>1124078418.08879</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0.078</v>
       </c>
       <c r="B41" t="n">
-        <v>1523.06691279753</v>
+        <v>1127.251683388315</v>
       </c>
       <c r="C41" t="n">
-        <v>1523066912.79753</v>
+        <v>1127251683.388315</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0.08</v>
       </c>
       <c r="B42" t="n">
-        <v>1527.162264926188</v>
+        <v>1130.353704142733</v>
       </c>
       <c r="C42" t="n">
-        <v>1527162264.926188</v>
+        <v>1130353704.142733</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>0.082</v>
       </c>
       <c r="B43" t="n">
-        <v>1531.168208779124</v>
+        <v>1133.387792229309</v>
       </c>
       <c r="C43" t="n">
-        <v>1531168208.779124</v>
+        <v>1133387792.229309</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1535.08878418252</v>
+        <v>1136.357029781602</v>
       </c>
       <c r="C44" t="n">
-        <v>1535088784.18252</v>
+        <v>1136357029.781602</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1538.927758477432</v>
+        <v>1139.264290138161</v>
       </c>
       <c r="C45" t="n">
-        <v>1538927758.477432</v>
+        <v>1139264290.138161</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1542.688650689968</v>
+        <v>1142.112256444989</v>
       </c>
       <c r="C46" t="n">
-        <v>1542688650.689968</v>
+        <v>1142112256.444989</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>0.09</v>
       </c>
       <c r="B47" t="n">
-        <v>1546.374753066665</v>
+        <v>1144.903438221201</v>
       </c>
       <c r="C47" t="n">
-        <v>1546374753.066665</v>
+        <v>1144903438.221201</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>0.092</v>
       </c>
       <c r="B48" t="n">
-        <v>1549.98915031346</v>
+        <v>1147.640186150622</v>
       </c>
       <c r="C48" t="n">
-        <v>1549989150.31346</v>
+        <v>1147640186.150621</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>0.094</v>
       </c>
       <c r="B49" t="n">
-        <v>1553.534736826899</v>
+        <v>1150.324705323257</v>
       </c>
       <c r="C49" t="n">
-        <v>1553534736.8269</v>
+        <v>1150324705.323257</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0.096</v>
       </c>
       <c r="B50" t="n">
-        <v>1557.014232164679</v>
+        <v>1152.959067118219</v>
       </c>
       <c r="C50" t="n">
-        <v>1557014232.164679</v>
+        <v>1152959067.118219</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>0.098</v>
       </c>
       <c r="B51" t="n">
-        <v>1560.430194967768</v>
+        <v>1155.545219892527</v>
       </c>
       <c r="C51" t="n">
-        <v>1560430194.967768</v>
+        <v>1155545219.892527</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>0.1</v>
       </c>
       <c r="B52" t="n">
-        <v>1563.785035517029</v>
+        <v>1158.084998617433</v>
       </c>
       <c r="C52" t="n">
-        <v>1563785035.51703</v>
+        <v>1158084998.617434</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>0.102</v>
       </c>
       <c r="B53" t="n">
-        <v>1567.081027082482</v>
+        <v>1160.580133584624</v>
       </c>
       <c r="C53" t="n">
-        <v>1567081027.082482</v>
+        <v>1160580133.584625</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>0.104</v>
       </c>
       <c r="B54" t="n">
-        <v>1570.320316202327</v>
+        <v>1163.032258288342</v>
       </c>
       <c r="C54" t="n">
-        <v>1570320316.202327</v>
+        <v>1163032258.288342</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>0.106</v>
       </c>
       <c r="B55" t="n">
-        <v>1573.504932010999</v>
+        <v>1165.442916575602</v>
       </c>
       <c r="C55" t="n">
-        <v>1573504932.010999</v>
+        <v>1165442916.575602</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>0.108</v>
       </c>
       <c r="B56" t="n">
-        <v>1576.63679472024</v>
+        <v>1167.813569144843</v>
       </c>
       <c r="C56" t="n">
-        <v>1576636794.72024</v>
+        <v>1167813569.144843</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0.11</v>
       </c>
       <c r="B57" t="n">
-        <v>1579.717723344132</v>
+        <v>1170.145599463212</v>
       </c>
       <c r="C57" t="n">
-        <v>1579717723.344132</v>
+        <v>1170145599.463212</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0.112</v>
       </c>
       <c r="B58" t="n">
-        <v>1582.749442747816</v>
+        <v>1172.440319164005</v>
       </c>
       <c r="C58" t="n">
-        <v>1582749442.747816</v>
+        <v>1172440319.164005</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0.114</v>
       </c>
       <c r="B59" t="n">
-        <v>1585.73359008995</v>
+        <v>1174.698972978307</v>
       </c>
       <c r="C59" t="n">
-        <v>1585733590.08995</v>
+        <v>1174698972.978307</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0.116</v>
       </c>
       <c r="B60" t="n">
-        <v>1588.671720720625</v>
+        <v>1176.922743248404</v>
       </c>
       <c r="C60" t="n">
-        <v>1588671720.720625</v>
+        <v>1176922743.248404</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0.118</v>
       </c>
       <c r="B61" t="n">
-        <v>1591.565313589246</v>
+        <v>1179.112754064962</v>
       </c>
       <c r="C61" t="n">
-        <v>1591565313.589247</v>
+        <v>1179112754.064962</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>0.12</v>
       </c>
       <c r="B62" t="n">
-        <v>1594.415776210581</v>
+        <v>1181.270075065118</v>
       </c>
       <c r="C62" t="n">
-        <v>1594415776.210581</v>
+        <v>1181270075.065118</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0.122</v>
       </c>
       <c r="B63" t="n">
-        <v>1597.224449231745</v>
+        <v>1183.395724924404</v>
       </c>
       <c r="C63" t="n">
-        <v>1597224449.231745</v>
+        <v>1183395724.924404</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>0.124</v>
       </c>
       <c r="B64" t="n">
-        <v>1599.992610638128</v>
+        <v>1185.490674571753</v>
       </c>
       <c r="C64" t="n">
-        <v>1599992610.638128</v>
+        <v>1185490674.571753</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0.126</v>
       </c>
       <c r="B65" t="n">
-        <v>1602.721479632092</v>
+        <v>1187.555850153607</v>
       </c>
       <c r="C65" t="n">
-        <v>1602721479.632092</v>
+        <v>1187555850.153607</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0.128</v>
       </c>
       <c r="B66" t="n">
-        <v>1605.412220214612</v>
+        <v>1189.592135770354</v>
       </c>
       <c r="C66" t="n">
-        <v>1605412220.214612</v>
+        <v>1189592135.770354</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0.13</v>
       </c>
       <c r="B67" t="n">
-        <v>1608.065944496864</v>
+        <v>1191.60037600582</v>
       </c>
       <c r="C67" t="n">
-        <v>1608065944.496864</v>
+        <v>1191600376.00582</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0.132</v>
       </c>
       <c r="B68" t="n">
-        <v>1610.683715765883</v>
+        <v>1193.581378268387</v>
       </c>
       <c r="C68" t="n">
-        <v>1610683715.765883</v>
+        <v>1193581378.268387</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0.134</v>
       </c>
       <c r="B69" t="n">
-        <v>1613.266551325981</v>
+        <v>1195.535914960375</v>
       </c>
       <c r="C69" t="n">
-        <v>1613266551.325981</v>
+        <v>1195535914.960375</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>0.136</v>
       </c>
       <c r="B70" t="n">
-        <v>1615.815425135376</v>
+        <v>1197.464725490639</v>
       </c>
       <c r="C70" t="n">
-        <v>1615815425.135376</v>
+        <v>1197464725.490638</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>0.138</v>
       </c>
       <c r="B71" t="n">
-        <v>1618.331270255559</v>
+        <v>1199.36851814384</v>
       </c>
       <c r="C71" t="n">
-        <v>1618331270.255559</v>
+        <v>1199368518.14384</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>0.14</v>
       </c>
       <c r="B72" t="n">
-        <v>1620.814981129182</v>
+        <v>1201.247971818491</v>
       </c>
       <c r="C72" t="n">
-        <v>1620814981.129182</v>
+        <v>1201247971.818491</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>0.142</v>
       </c>
       <c r="B73" t="n">
-        <v>1623.267415700727</v>
+        <v>1203.103737644732</v>
       </c>
       <c r="C73" t="n">
-        <v>1623267415.700727</v>
+        <v>1203103737.644732</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>0.144</v>
       </c>
       <c r="B74" t="n">
-        <v>1625.689397392837</v>
+        <v>1204.936440491704</v>
       </c>
       <c r="C74" t="n">
-        <v>1625689397.392837</v>
+        <v>1204936440.491704</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>0.146</v>
       </c>
       <c r="B75" t="n">
-        <v>1628.081716949989</v>
+        <v>1206.746680373491</v>
       </c>
       <c r="C75" t="n">
-        <v>1628081716.949989</v>
+        <v>1206746680.373491</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>0.148</v>
       </c>
       <c r="B76" t="n">
-        <v>1630.44513416008</v>
+        <v>1208.53503376172</v>
       </c>
       <c r="C76" t="n">
-        <v>1630445134.160079</v>
+        <v>1208535033.76172</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>0.15</v>
       </c>
       <c r="B77" t="n">
-        <v>1632.780379463531</v>
+        <v>1210.302054812196</v>
       </c>
       <c r="C77" t="n">
-        <v>1632780379.463531</v>
+        <v>1210302054.812196</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>0.152</v>
       </c>
       <c r="B78" t="n">
-        <v>1635.088155458657</v>
+        <v>1212.048276512256</v>
       </c>
       <c r="C78" t="n">
-        <v>1635088155.458657</v>
+        <v>1212048276.512256</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>0.154</v>
       </c>
       <c r="B79" t="n">
-        <v>1637.369138311235</v>
+        <v>1213.774211754942</v>
       </c>
       <c r="C79" t="n">
-        <v>1637369138.311235</v>
+        <v>1213774211.754942</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>0.156</v>
       </c>
       <c r="B80" t="n">
-        <v>1639.623979075536</v>
+        <v>1215.480354345534</v>
       </c>
       <c r="C80" t="n">
-        <v>1639623979.075536</v>
+        <v>1215480354.345534</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>0.158</v>
       </c>
       <c r="B81" t="n">
-        <v>1641.853304933414</v>
+        <v>1217.167179945512</v>
       </c>
       <c r="C81" t="n">
-        <v>1641853304.933414</v>
+        <v>1217167179.945512</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>0.16</v>
       </c>
       <c r="B82" t="n">
-        <v>1644.057720357525</v>
+        <v>1218.835146958575</v>
       </c>
       <c r="C82" t="n">
-        <v>1644057720.357525</v>
+        <v>1218835146.958575</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0.162</v>
       </c>
       <c r="B83" t="n">
-        <v>1646.237808204166</v>
+        <v>1220.484697362944</v>
       </c>
       <c r="C83" t="n">
-        <v>1646237808.204166</v>
+        <v>1220484697.362944</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>0.164</v>
       </c>
       <c r="B84" t="n">
-        <v>1648.394130740837</v>
+        <v>1222.116257493826</v>
       </c>
       <c r="C84" t="n">
-        <v>1648394130.740837</v>
+        <v>1222116257.493825</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>0.166</v>
       </c>
       <c r="B85" t="n">
-        <v>1650.527230613139</v>
+        <v>1223.73023877959</v>
       </c>
       <c r="C85" t="n">
-        <v>1650527230.613139</v>
+        <v>1223730238.77959</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>0.168</v>
       </c>
       <c r="B86" t="n">
-        <v>1652.637631755277</v>
+        <v>1225.327038434913</v>
       </c>
       <c r="C86" t="n">
-        <v>1652637631.755277</v>
+        <v>1225327038.434913</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>0.17</v>
       </c>
       <c r="B87" t="n">
-        <v>1654.725840248095</v>
+        <v>1226.907040113892</v>
       </c>
       <c r="C87" t="n">
-        <v>1654725840.248096</v>
+        <v>1226907040.113892</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>0.172</v>
       </c>
       <c r="B88" t="n">
-        <v>1656.792345128221</v>
+        <v>1228.470614525865</v>
       </c>
       <c r="C88" t="n">
-        <v>1656792345.128221</v>
+        <v>1228470614.525865</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>0.174</v>
       </c>
       <c r="B89" t="n">
-        <v>1658.837619151656</v>
+        <v>1230.018120016496</v>
       </c>
       <c r="C89" t="n">
-        <v>1658837619.151656</v>
+        <v>1230018120.016496</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>0.176</v>
       </c>
       <c r="B90" t="n">
-        <v>1660.862119514854</v>
+        <v>1231.549903116433</v>
       </c>
       <c r="C90" t="n">
-        <v>1660862119.514854</v>
+        <v>1231549903.116433</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>0.178</v>
       </c>
       <c r="B91" t="n">
-        <v>1662.866288536108</v>
+        <v>1233.06629905971</v>
       </c>
       <c r="C91" t="n">
-        <v>1662866288.536108</v>
+        <v>1233066299.059711</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>0.18</v>
       </c>
       <c r="B92" t="n">
-        <v>1664.850554299856</v>
+        <v>1234.567632273881</v>
       </c>
       <c r="C92" t="n">
-        <v>1664850554.299856</v>
+        <v>1234567632.273881</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>0.182</v>
       </c>
       <c r="B93" t="n">
-        <v>1666.81533126629</v>
+        <v>1236.054216843707</v>
       </c>
       <c r="C93" t="n">
-        <v>1666815331.26629</v>
+        <v>1236054216.843707</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>0.184</v>
       </c>
       <c r="B94" t="n">
-        <v>1668.761020848521</v>
+        <v>1237.526356950111</v>
       </c>
       <c r="C94" t="n">
-        <v>1668761020.848521</v>
+        <v>1237526356.950111</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>0.186</v>
       </c>
       <c r="B95" t="n">
-        <v>1670.688011959332</v>
+        <v>1238.984347285972</v>
       </c>
       <c r="C95" t="n">
-        <v>1670688011.959332</v>
+        <v>1238984347.285972</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>0.188</v>
       </c>
       <c r="B96" t="n">
-        <v>1672.596681529444</v>
+        <v>1240.428473450204</v>
       </c>
       <c r="C96" t="n">
-        <v>1672596681.529444</v>
+        <v>1240428473.450204</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>0.19</v>
       </c>
       <c r="B97" t="n">
-        <v>1674.487394999058</v>
+        <v>1241.859012321477</v>
       </c>
       <c r="C97" t="n">
-        <v>1674487394.999058</v>
+        <v>1241859012.321477</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>0.192</v>
       </c>
       <c r="B98" t="n">
-        <v>1676.360506784316</v>
+        <v>1243.27623241284</v>
       </c>
       <c r="C98" t="n">
-        <v>1676360506.784316</v>
+        <v>1243276232.41284</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>0.194</v>
       </c>
       <c r="B99" t="n">
-        <v>1678.216360720209</v>
+        <v>1244.680394208399</v>
       </c>
       <c r="C99" t="n">
-        <v>1678216360.720209</v>
+        <v>1244680394.208399</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>0.196</v>
       </c>
       <c r="B100" t="n">
-        <v>1680.055290481344</v>
+        <v>1246.071750483136</v>
       </c>
       <c r="C100" t="n">
-        <v>1680055290.481344</v>
+        <v>1246071750.483136</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>0.198</v>
       </c>
       <c r="B101" t="n">
-        <v>1681.877619981895</v>
+        <v>1247.450546606882</v>
       </c>
       <c r="C101" t="n">
-        <v>1681877619.981895</v>
+        <v>1247450546.606882</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>0.2</v>
       </c>
       <c r="B102" t="n">
-        <v>1683.683663755967</v>
+        <v>1248.817020833369</v>
       </c>
       <c r="C102" t="n">
-        <v>1683683663.755967</v>
+        <v>1248817020.833369</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>0.202</v>
       </c>
       <c r="B103" t="n">
-        <v>1685.473727319504</v>
+        <v>1250.171404575243</v>
       </c>
       <c r="C103" t="n">
-        <v>1685473727.319504</v>
+        <v>1250171404.575243</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>0.204</v>
       </c>
       <c r="B104" t="n">
-        <v>1687.248107514835</v>
+        <v>1251.513922665845</v>
       </c>
       <c r="C104" t="n">
-        <v>1687248107.514835</v>
+        <v>1251513922.665845</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>0.206</v>
       </c>
       <c r="B105" t="n">
-        <v>1689.007092838817</v>
+        <v>1252.84479360853</v>
       </c>
       <c r="C105" t="n">
-        <v>1689007092.838817</v>
+        <v>1252844793.60853</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>0.208</v>
       </c>
       <c r="B106" t="n">
-        <v>1690.750963755538</v>
+        <v>1254.164229814215</v>
       </c>
       <c r="C106" t="n">
-        <v>1690750963.755538</v>
+        <v>1254164229.814215</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>0.21</v>
       </c>
       <c r="B107" t="n">
-        <v>1692.479992994429</v>
+        <v>1255.472437827836</v>
       </c>
       <c r="C107" t="n">
-        <v>1692479992.994429</v>
+        <v>1255472437.827836</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>0.212</v>
       </c>
       <c r="B108" t="n">
-        <v>1694.1944458346</v>
+        <v>1256.769618544319</v>
       </c>
       <c r="C108" t="n">
-        <v>1694194445.8346</v>
+        <v>1256769618.544319</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>0.214</v>
       </c>
       <c r="B109" t="n">
-        <v>1695.894580376162</v>
+        <v>1258.055967414652</v>
       </c>
       <c r="C109" t="n">
-        <v>1695894580.376162</v>
+        <v>1258055967.414652</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>0.216</v>
       </c>
       <c r="B110" t="n">
-        <v>1697.580647799248</v>
+        <v>1259.331674642597</v>
       </c>
       <c r="C110" t="n">
-        <v>1697580647.799248</v>
+        <v>1259331674.642597</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>0.218</v>
       </c>
       <c r="B111" t="n">
-        <v>1699.252892611389</v>
+        <v>1260.596925372547</v>
       </c>
       <c r="C111" t="n">
-        <v>1699252892.611389</v>
+        <v>1260596925.372547</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>0.22</v>
       </c>
       <c r="B112" t="n">
-        <v>1700.911552883885</v>
+        <v>1261.851899869009</v>
       </c>
       <c r="C112" t="n">
-        <v>1700911552.883885</v>
+        <v>1261851899.869009</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>0.222</v>
       </c>
       <c r="B113" t="n">
-        <v>1702.556860477735</v>
+        <v>1263.096773688154</v>
       </c>
       <c r="C113" t="n">
-        <v>1702556860.477735</v>
+        <v>1263096773.688154</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>0.224</v>
       </c>
       <c r="B114" t="n">
-        <v>1704.1890412597</v>
+        <v>1264.331717841851</v>
       </c>
       <c r="C114" t="n">
-        <v>1704189041.2597</v>
+        <v>1264331717.841851</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>0.226</v>
       </c>
       <c r="B115" t="n">
-        <v>1705.808315308994</v>
+        <v>1265.556898954589</v>
       </c>
       <c r="C115" t="n">
-        <v>1705808315.308994</v>
+        <v>1265556898.954589</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>0.228</v>
       </c>
       <c r="B116" t="n">
-        <v>1707.414897115096</v>
+        <v>1266.772479413639</v>
       </c>
       <c r="C116" t="n">
-        <v>1707414897.115096</v>
+        <v>1266772479.413639</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>0.23</v>
       </c>
       <c r="B117" t="n">
-        <v>1709.008995767143</v>
+        <v>1267.978617512819</v>
       </c>
       <c r="C117" t="n">
-        <v>1709008995.767143</v>
+        <v>1267978617.512819</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>0.232</v>
       </c>
       <c r="B118" t="n">
-        <v>1710.59081513532</v>
+        <v>1269.175467590171</v>
       </c>
       <c r="C118" t="n">
-        <v>1710590815.13532</v>
+        <v>1269175467.590171</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0.234</v>
       </c>
       <c r="B119" t="n">
-        <v>1712.160554044666</v>
+        <v>1270.363180159881</v>
       </c>
       <c r="C119" t="n">
-        <v>1712160554.044666</v>
+        <v>1270363180.159881</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>0.236</v>
       </c>
       <c r="B120" t="n">
-        <v>1713.718406441655</v>
+        <v>1271.541902038702</v>
       </c>
       <c r="C120" t="n">
-        <v>1713718406.441655</v>
+        <v>1271541902.038702</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>0.238</v>
       </c>
       <c r="B121" t="n">
-        <v>1715.264561553936</v>
+        <v>1272.711776467177</v>
       </c>
       <c r="C121" t="n">
-        <v>1715264561.553936</v>
+        <v>1272711776.467177</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>0.24</v>
       </c>
       <c r="B122" t="n">
-        <v>1716.799204043543</v>
+        <v>1273.872943225899</v>
       </c>
       <c r="C122" t="n">
-        <v>1716799204.043543</v>
+        <v>1273872943.225899</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>0.242</v>
       </c>
       <c r="B123" t="n">
-        <v>1718.322514153908</v>
+        <v>1275.025538747073</v>
       </c>
       <c r="C123" t="n">
-        <v>1718322514.153908</v>
+        <v>1275025538.747073</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>0.244</v>
       </c>
       <c r="B124" t="n">
-        <v>1719.834667850974</v>
+        <v>1276.169696221577</v>
       </c>
       <c r="C124" t="n">
-        <v>1719834667.850974</v>
+        <v>1276169696.221577</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>0.246</v>
       </c>
       <c r="B125" t="n">
-        <v>1721.335836958687</v>
+        <v>1277.305545701767</v>
       </c>
       <c r="C125" t="n">
-        <v>1721335836.958687</v>
+        <v>1277305545.701766</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>0.248</v>
       </c>
       <c r="B126" t="n">
-        <v>1722.826189289142</v>
+        <v>1278.433214200211</v>
       </c>
       <c r="C126" t="n">
-        <v>1722826189.289142</v>
+        <v>1278433214.200211</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>0.25</v>
       </c>
       <c r="B127" t="n">
-        <v>1724.305888767623</v>
+        <v>1279.552825784554</v>
       </c>
       <c r="C127" t="n">
-        <v>1724305888.767623</v>
+        <v>1279552825.784554</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>0.252</v>
       </c>
       <c r="B128" t="n">
-        <v>1725.775095552792</v>
+        <v>1280.664501668685</v>
       </c>
       <c r="C128" t="n">
-        <v>1725775095.552792</v>
+        <v>1280664501.668685</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>0.254</v>
       </c>
       <c r="B129" t="n">
-        <v>1727.233966152235</v>
+        <v>1281.76836030039</v>
       </c>
       <c r="C129" t="n">
-        <v>1727233966.152235</v>
+        <v>1281768360.30039</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>0.256</v>
       </c>
       <c r="B130" t="n">
-        <v>1728.682653533595</v>
+        <v>1282.864517445645</v>
       </c>
       <c r="C130" t="n">
-        <v>1728682653.533595</v>
+        <v>1282864517.445645</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>0.258</v>
       </c>
       <c r="B131" t="n">
-        <v>1730.121307231482</v>
+        <v>1283.953086269704</v>
       </c>
       <c r="C131" t="n">
-        <v>1730121307.231483</v>
+        <v>1283953086.269705</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>0.26</v>
       </c>
       <c r="B132" t="n">
-        <v>1731.550073450359</v>
+        <v>1285.034177415134</v>
       </c>
       <c r="C132" t="n">
-        <v>1731550073.450359</v>
+        <v>1285034177.415134</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>0.262</v>
       </c>
       <c r="B133" t="n">
-        <v>1732.969095163575</v>
+        <v>1286.107899076918</v>
       </c>
       <c r="C133" t="n">
-        <v>1732969095.163575</v>
+        <v>1286107899.076918</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>0.264</v>
       </c>
       <c r="B134" t="n">
-        <v>1734.378512208738</v>
+        <v>1287.174357074786</v>
       </c>
       <c r="C134" t="n">
-        <v>1734378512.208738</v>
+        <v>1287174357.074786</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>0.266</v>
       </c>
       <c r="B135" t="n">
-        <v>1735.778461379559</v>
+        <v>1288.23365492286</v>
       </c>
       <c r="C135" t="n">
-        <v>1735778461.379559</v>
+        <v>1288233654.92286</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>0.268</v>
       </c>
       <c r="B136" t="n">
-        <v>1737.169076514358</v>
+        <v>1289.285893896769</v>
       </c>
       <c r="C136" t="n">
-        <v>1737169076.514358</v>
+        <v>1289285893.896769</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>0.27</v>
       </c>
       <c r="B137" t="n">
-        <v>1738.550488581341</v>
+        <v>1290.33117309831</v>
       </c>
       <c r="C137" t="n">
-        <v>1738550488.581341</v>
+        <v>1290331173.09831</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>0.272</v>
       </c>
       <c r="B138" t="n">
-        <v>1739.922825760826</v>
+        <v>1291.369589517795</v>
       </c>
       <c r="C138" t="n">
-        <v>1739922825.760826</v>
+        <v>1291369589.517795</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>0.274</v>
       </c>
       <c r="B139" t="n">
-        <v>1741.286213524514</v>
+        <v>1292.401238094152</v>
       </c>
       <c r="C139" t="n">
-        <v>1741286213.524514</v>
+        <v>1292401238.094152</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>0.276</v>
       </c>
       <c r="B140" t="n">
-        <v>1742.640774711955</v>
+        <v>1293.426211772901</v>
       </c>
       <c r="C140" t="n">
-        <v>1742640774.711955</v>
+        <v>1293426211.772901</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>0.278</v>
       </c>
       <c r="B141" t="n">
-        <v>1743.986629604321</v>
+        <v>1294.444601562079</v>
       </c>
       <c r="C141" t="n">
-        <v>1743986629.604321</v>
+        <v>1294444601.562079</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>0.28</v>
       </c>
       <c r="B142" t="n">
-        <v>1745.323895995593</v>
+        <v>1295.456496586214</v>
       </c>
       <c r="C142" t="n">
-        <v>1745323895.995593</v>
+        <v>1295456496.586214</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>0.282</v>
       </c>
       <c r="B143" t="n">
-        <v>1746.652689261287</v>
+        <v>1296.461984138414</v>
       </c>
       <c r="C143" t="n">
-        <v>1746652689.261287</v>
+        <v>1296461984.138414</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>0.284</v>
       </c>
       <c r="B144" t="n">
-        <v>1747.973122424793</v>
+        <v>1297.461149730662</v>
       </c>
       <c r="C144" t="n">
-        <v>1747973122.424793</v>
+        <v>1297461149.730662</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>0.286</v>
       </c>
       <c r="B145" t="n">
-        <v>1749.285306221462</v>
+        <v>1298.454077142391</v>
       </c>
       <c r="C145" t="n">
-        <v>1749285306.221462</v>
+        <v>1298454077.142391</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>0.288</v>
       </c>
       <c r="B146" t="n">
-        <v>1750.589349160496</v>
+        <v>1299.440848467398</v>
       </c>
       <c r="C146" t="n">
-        <v>1750589349.160496</v>
+        <v>1299440848.467398</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>0.29</v>
       </c>
       <c r="B147" t="n">
-        <v>1751.885357584765</v>
+        <v>1300.421544159174</v>
       </c>
       <c r="C147" t="n">
-        <v>1751885357.584764</v>
+        <v>1300421544.159174</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>0.292</v>
       </c>
       <c r="B148" t="n">
-        <v>1753.1734357286</v>
+        <v>1301.39624307472</v>
       </c>
       <c r="C148" t="n">
-        <v>1753173435.7286</v>
+        <v>1301396243.07472</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>0.294</v>
       </c>
       <c r="B149" t="n">
-        <v>1754.453685773677</v>
+        <v>1302.365022516889</v>
       </c>
       <c r="C149" t="n">
-        <v>1754453685.773677</v>
+        <v>1302365022.516889</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>0.296</v>
       </c>
       <c r="B150" t="n">
-        <v>1755.726207903045</v>
+        <v>1303.327958275334</v>
       </c>
       <c r="C150" t="n">
-        <v>1755726207.903045</v>
+        <v>1303327958.275334</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>0.298</v>
       </c>
       <c r="B151" t="n">
-        <v>1756.991100353377</v>
+        <v>1304.285124666113</v>
       </c>
       <c r="C151" t="n">
-        <v>1756991100.353377</v>
+        <v>1304285124.666113</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>0.3</v>
       </c>
       <c r="B152" t="n">
-        <v>1758.248459465516</v>
+        <v>1305.236594569984</v>
       </c>
       <c r="C152" t="n">
-        <v>1758248459.465516</v>
+        <v>1305236594.569984</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>0.302</v>
       </c>
       <c r="B153" t="n">
-        <v>1759.498379733388</v>
+        <v>1306.182439469477</v>
       </c>
       <c r="C153" t="n">
-        <v>1759498379.733388</v>
+        <v>1306182439.469477</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>0.304</v>
       </c>
       <c r="B154" t="n">
-        <v>1760.740953851333</v>
+        <v>1307.122729484756</v>
       </c>
       <c r="C154" t="n">
-        <v>1760740953.851333</v>
+        <v>1307122729.484756</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>0.306</v>
       </c>
       <c r="B155" t="n">
-        <v>1761.976272759922</v>
+        <v>1308.057533408336</v>
       </c>
       <c r="C155" t="n">
-        <v>1761976272.759922</v>
+        <v>1308057533.408336</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>0.308</v>
       </c>
       <c r="B156" t="n">
-        <v>1763.204425690321</v>
+        <v>1308.986918738701</v>
       </c>
       <c r="C156" t="n">
-        <v>1763204425.690321</v>
+        <v>1308986918.738701</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>0.31</v>
       </c>
       <c r="B157" t="n">
-        <v>1764.42550020725</v>
+        <v>1309.910951712848</v>
       </c>
       <c r="C157" t="n">
-        <v>1764425500.20725</v>
+        <v>1309910951.712848</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>0.312</v>
       </c>
       <c r="B158" t="n">
-        <v>1765.639582250595</v>
+        <v>1310.829697337822</v>
       </c>
       <c r="C158" t="n">
-        <v>1765639582.250595</v>
+        <v>1310829697.337822</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>0.314</v>
       </c>
       <c r="B159" t="n">
-        <v>1766.846756175722</v>
+        <v>1311.743219421254</v>
       </c>
       <c r="C159" t="n">
-        <v>1766846756.175722</v>
+        <v>1311743219.421254</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>0.316</v>
       </c>
       <c r="B160" t="n">
-        <v>1768.047104792545</v>
+        <v>1312.651580600957</v>
       </c>
       <c r="C160" t="n">
-        <v>1768047104.792545</v>
+        <v>1312651580.600957</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>0.318</v>
       </c>
       <c r="B161" t="n">
-        <v>1769.240709403384</v>
+        <v>1313.554842373615</v>
       </c>
       <c r="C161" t="n">
-        <v>1769240709.403384</v>
+        <v>1313554842.373615</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>0.32</v>
       </c>
       <c r="B162" t="n">
-        <v>1770.42764983967</v>
+        <v>1314.453065122584</v>
       </c>
       <c r="C162" t="n">
-        <v>1770427649.83967</v>
+        <v>1314453065.122584</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>0.322</v>
       </c>
       <c r="B163" t="n">
-        <v>1771.608004497536</v>
+        <v>1315.346308144851</v>
       </c>
       <c r="C163" t="n">
-        <v>1771608004.497536</v>
+        <v>1315346308.144851</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>0.324</v>
       </c>
       <c r="B164" t="n">
-        <v>1772.781850372323</v>
+        <v>1316.234629677181</v>
       </c>
       <c r="C164" t="n">
-        <v>1772781850.372323</v>
+        <v>1316234629.677181</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>0.326</v>
       </c>
       <c r="B165" t="n">
-        <v>1773.949263092059</v>
+        <v>1317.118086921471</v>
       </c>
       <c r="C165" t="n">
-        <v>1773949263.092059</v>
+        <v>1317118086.921471</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>0.328</v>
       </c>
       <c r="B166" t="n">
-        <v>1775.110316949934</v>
+        <v>1317.996736069352</v>
       </c>
       <c r="C166" t="n">
-        <v>1775110316.949934</v>
+        <v>1317996736.069352</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>0.33</v>
       </c>
       <c r="B167" t="n">
-        <v>1776.265084935814</v>
+        <v>1318.870632326056</v>
       </c>
       <c r="C167" t="n">
-        <v>1776265084.935814</v>
+        <v>1318870632.326056</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>0.332</v>
       </c>
       <c r="B168" t="n">
-        <v>1777.413638766821</v>
+        <v>1319.739829933584</v>
       </c>
       <c r="C168" t="n">
-        <v>1777413638.766821</v>
+        <v>1319739829.933584</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>0.334</v>
       </c>
       <c r="B169" t="n">
-        <v>1778.55604891702</v>
+        <v>1320.604382193187</v>
       </c>
       <c r="C169" t="n">
-        <v>1778556048.91702</v>
+        <v>1320604382.193187</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>0.336</v>
       </c>
       <c r="B170" t="n">
-        <v>1779.692384646243</v>
+        <v>1321.464341487199</v>
       </c>
       <c r="C170" t="n">
-        <v>1779692384.646243</v>
+        <v>1321464341.487199</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>0.338</v>
       </c>
       <c r="B171" t="n">
-        <v>1780.822714028071</v>
+        <v>1322.319759300229</v>
       </c>
       <c r="C171" t="n">
-        <v>1780822714.028071</v>
+        <v>1322319759.300229</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>0.34</v>
       </c>
       <c r="B172" t="n">
-        <v>1781.947103977018</v>
+        <v>1323.17068623975</v>
       </c>
       <c r="C172" t="n">
-        <v>1781947103.977018</v>
+        <v>1323170686.23975</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>0.342</v>
       </c>
       <c r="B173" t="n">
-        <v>1783.06562027493</v>
+        <v>1324.017172056093</v>
       </c>
       <c r="C173" t="n">
-        <v>1783065620.27493</v>
+        <v>1324017172.056093</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>0.344</v>
       </c>
       <c r="B174" t="n">
-        <v>1784.17832759664</v>
+        <v>1324.859265661869</v>
       </c>
       <c r="C174" t="n">
-        <v>1784178327.59664</v>
+        <v>1324859265.661869</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>0.346</v>
       </c>
       <c r="B175" t="n">
-        <v>1785.285289534886</v>
+        <v>1325.697015150851</v>
       </c>
       <c r="C175" t="n">
-        <v>1785285289.534886</v>
+        <v>1325697015.150851</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>0.348</v>
       </c>
       <c r="B176" t="n">
-        <v>1786.386568624541</v>
+        <v>1326.530467816314</v>
       </c>
       <c r="C176" t="n">
-        <v>1786386568.624542</v>
+        <v>1326530467.816314</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>0.35</v>
       </c>
       <c r="B177" t="n">
-        <v>1787.482226366157</v>
+        <v>1327.359670168866</v>
       </c>
       <c r="C177" t="n">
-        <v>1787482226.366157</v>
+        <v>1327359670.168866</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>0.352</v>
       </c>
       <c r="B178" t="n">
-        <v>1788.572323248851</v>
+        <v>1328.184667953781</v>
       </c>
       <c r="C178" t="n">
-        <v>1788572323.248851</v>
+        <v>1328184667.953781</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>0.354</v>
       </c>
       <c r="B179" t="n">
-        <v>1789.65691877257</v>
+        <v>1329.005506167855</v>
       </c>
       <c r="C179" t="n">
-        <v>1789656918.77257</v>
+        <v>1329005506.167856</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>0.356</v>
       </c>
       <c r="B180" t="n">
-        <v>1790.736071469731</v>
+        <v>1329.822229075796</v>
       </c>
       <c r="C180" t="n">
-        <v>1790736071.469731</v>
+        <v>1329822229.075796</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>0.358</v>
       </c>
       <c r="B181" t="n">
-        <v>1791.809838926278</v>
+        <v>1330.634880226163</v>
       </c>
       <c r="C181" t="n">
-        <v>1791809838.926277</v>
+        <v>1330634880.226163</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>0.36</v>
       </c>
       <c r="B182" t="n">
-        <v>1792.878277802159</v>
+        <v>1331.443502466876</v>
       </c>
       <c r="C182" t="n">
-        <v>1792878277.802159</v>
+        <v>1331443502.466876</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>0.362</v>
       </c>
       <c r="B183" t="n">
-        <v>1793.941443851257</v>
+        <v>1332.248137960305</v>
       </c>
       <c r="C183" t="n">
-        <v>1793941443.851257</v>
+        <v>1332248137.960304</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>0.364</v>
       </c>
       <c r="B184" t="n">
-        <v>1794.99939194078</v>
+        <v>1333.048828197946</v>
       </c>
       <c r="C184" t="n">
-        <v>1794999391.94078</v>
+        <v>1333048828.197946</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>0.366</v>
       </c>
       <c r="B185" t="n">
-        <v>1796.052176070129</v>
+        <v>1333.845614014718</v>
       </c>
       <c r="C185" t="n">
-        <v>1796052176.070129</v>
+        <v>1333845614.014719</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>0.368</v>
       </c>
       <c r="B186" t="n">
-        <v>1797.099849389274</v>
+        <v>1334.638535602865</v>
       </c>
       <c r="C186" t="n">
-        <v>1797099849.389274</v>
+        <v>1334638535.602865</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>0.37</v>
       </c>
       <c r="B187" t="n">
-        <v>1798.142464216634</v>
+        <v>1335.427632525495</v>
       </c>
       <c r="C187" t="n">
-        <v>1798142464.216634</v>
+        <v>1335427632.525495</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>0.372</v>
       </c>
       <c r="B188" t="n">
-        <v>1799.180072056492</v>
+        <v>1336.212943729769</v>
       </c>
       <c r="C188" t="n">
-        <v>1799180072.056492</v>
+        <v>1336212943.729769</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>0.374</v>
       </c>
       <c r="B189" t="n">
-        <v>1800.212723615951</v>
+        <v>1336.994507559733</v>
       </c>
       <c r="C189" t="n">
-        <v>1800212723.615951</v>
+        <v>1336994507.559733</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>0.376</v>
       </c>
       <c r="B190" t="n">
-        <v>1801.240468821451</v>
+        <v>1337.772361768827</v>
       </c>
       <c r="C190" t="n">
-        <v>1801240468.82145</v>
+        <v>1337772361.768827</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>0.378</v>
       </c>
       <c r="B191" t="n">
-        <v>1802.263356834855</v>
+        <v>1338.546543532056</v>
       </c>
       <c r="C191" t="n">
-        <v>1802263356.834855</v>
+        <v>1338546543.532056</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>0.38</v>
       </c>
       <c r="B192" t="n">
-        <v>1803.281436069125</v>
+        <v>1339.317089457864</v>
       </c>
       <c r="C192" t="n">
-        <v>1803281436.069125</v>
+        <v>1339317089.457864</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>0.382</v>
       </c>
       <c r="B193" t="n">
-        <v>1804.294754203594</v>
+        <v>1340.084035599689</v>
       </c>
       <c r="C193" t="n">
-        <v>1804294754.203594</v>
+        <v>1340084035.599689</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>0.384</v>
       </c>
       <c r="B194" t="n">
-        <v>1805.303358198845</v>
+        <v>1340.84741746723</v>
       </c>
       <c r="C194" t="n">
-        <v>1805303358.198845</v>
+        <v>1340847417.46723</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>0.386</v>
       </c>
       <c r="B195" t="n">
-        <v>1806.307294311217</v>
+        <v>1341.607270037428</v>
       </c>
       <c r="C195" t="n">
-        <v>1806307294.311217</v>
+        <v>1341607270.037428</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>0.388</v>
       </c>
       <c r="B196" t="n">
-        <v>1807.306608106948</v>
+        <v>1342.363627765168</v>
       </c>
       <c r="C196" t="n">
-        <v>1807306608.106948</v>
+        <v>1342363627.765168</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>0.39</v>
       </c>
       <c r="B197" t="n">
-        <v>1808.301344475951</v>
+        <v>1343.116524593712</v>
       </c>
       <c r="C197" t="n">
-        <v>1808301344.475951</v>
+        <v>1343116524.593712</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>0.392</v>
       </c>
       <c r="B198" t="n">
-        <v>1809.291547645262</v>
+        <v>1343.865993964872</v>
       </c>
       <c r="C198" t="n">
-        <v>1809291547.645262</v>
+        <v>1343865993.964872</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>0.394</v>
       </c>
       <c r="B199" t="n">
-        <v>1810.277261192141</v>
+        <v>1344.612068828931</v>
       </c>
       <c r="C199" t="n">
-        <v>1810277261.192141</v>
+        <v>1344612068.828931</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>0.396</v>
       </c>
       <c r="B200" t="n">
-        <v>1811.258528056852</v>
+        <v>1345.354781654317</v>
       </c>
       <c r="C200" t="n">
-        <v>1811258528.056852</v>
+        <v>1345354781.654317</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>0.398</v>
       </c>
       <c r="B201" t="n">
-        <v>1812.235390555135</v>
+        <v>1346.09416443704</v>
       </c>
       <c r="C201" t="n">
-        <v>1812235390.555135</v>
+        <v>1346094164.43704</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>0.4</v>
       </c>
       <c r="B202" t="n">
-        <v>1813.207890390365</v>
+        <v>1346.830248709893</v>
       </c>
       <c r="C202" t="n">
-        <v>1813207890.390365</v>
+        <v>1346830248.709893</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>0.402</v>
       </c>
       <c r="B203" t="n">
-        <v>1814.176068665418</v>
+        <v>1347.56306555144</v>
       </c>
       <c r="C203" t="n">
-        <v>1814176068.665418</v>
+        <v>1347563065.55144</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>0.404</v>
       </c>
       <c r="B204" t="n">
-        <v>1815.139965894249</v>
+        <v>1348.292645594774</v>
       </c>
       <c r="C204" t="n">
-        <v>1815139965.894249</v>
+        <v>1348292645.594774</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>0.406</v>
       </c>
       <c r="B205" t="n">
-        <v>1816.099622013195</v>
+        <v>1349.01901903607</v>
       </c>
       <c r="C205" t="n">
-        <v>1816099622.013195</v>
+        <v>1349019019.03607</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>0.408</v>
       </c>
       <c r="B206" t="n">
-        <v>1817.055076391995</v>
+        <v>1349.742215642931</v>
       </c>
       <c r="C206" t="n">
-        <v>1817055076.391995</v>
+        <v>1349742215.642931</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>0.41</v>
       </c>
       <c r="B207" t="n">
-        <v>1818.006367844564</v>
+        <v>1350.462264762536</v>
       </c>
       <c r="C207" t="n">
-        <v>1818006367.844564</v>
+        <v>1350462264.762536</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>0.412</v>
       </c>
       <c r="B208" t="n">
-        <v>1818.953534639493</v>
+        <v>1351.179195329592</v>
       </c>
       <c r="C208" t="n">
-        <v>1818953534.639493</v>
+        <v>1351179195.329592</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>0.414</v>
       </c>
       <c r="B209" t="n">
-        <v>1819.896614510316</v>
+        <v>1351.893035874097</v>
       </c>
       <c r="C209" t="n">
-        <v>1819896614.510316</v>
+        <v>1351893035.874097</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>0.416</v>
       </c>
       <c r="B210" t="n">
-        <v>1820.835644665524</v>
+        <v>1352.603814528929</v>
       </c>
       <c r="C210" t="n">
-        <v>1820835644.665524</v>
+        <v>1352603814.528929</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>0.418</v>
       </c>
       <c r="B211" t="n">
-        <v>1821.770661798354</v>
+        <v>1353.31155903724</v>
       </c>
       <c r="C211" t="n">
-        <v>1821770661.798354</v>
+        <v>1353311559.03724</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>0.42</v>
       </c>
       <c r="B212" t="n">
-        <v>1822.701702096339</v>
+        <v>1354.016296759697</v>
       </c>
       <c r="C212" t="n">
-        <v>1822701702.096339</v>
+        <v>1354016296.759697</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>0.422</v>
       </c>
       <c r="B213" t="n">
-        <v>1823.628801250649</v>
+        <v>1354.718054681542</v>
       </c>
       <c r="C213" t="n">
-        <v>1823628801.250649</v>
+        <v>1354718054.681542</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>0.424</v>
       </c>
       <c r="B214" t="n">
-        <v>1824.551994465203</v>
+        <v>1355.41685941949</v>
       </c>
       <c r="C214" t="n">
-        <v>1824551994.465203</v>
+        <v>1355416859.419491</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>0.426</v>
       </c>
       <c r="B215" t="n">
-        <v>1825.471316465585</v>
+        <v>1356.112737228477</v>
       </c>
       <c r="C215" t="n">
-        <v>1825471316.465585</v>
+        <v>1356112737.228477</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>0.428</v>
       </c>
       <c r="B216" t="n">
-        <v>1826.386801507743</v>
+        <v>1356.80571400824</v>
       </c>
       <c r="C216" t="n">
-        <v>1826386801.507743</v>
+        <v>1356805714.00824</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>0.43</v>
       </c>
       <c r="B217" t="n">
-        <v>1827.298483386503</v>
+        <v>1357.495815309762</v>
       </c>
       <c r="C217" t="n">
-        <v>1827298483.386503</v>
+        <v>1357495815.309762</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>0.432</v>
       </c>
       <c r="B218" t="n">
-        <v>1828.206395443876</v>
+        <v>1358.183066341557</v>
       </c>
       <c r="C218" t="n">
-        <v>1828206395.443876</v>
+        <v>1358183066.341557</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>0.434</v>
       </c>
       <c r="B219" t="n">
-        <v>1829.110570577191</v>
+        <v>1358.867491975826</v>
       </c>
       <c r="C219" t="n">
-        <v>1829110570.577191</v>
+        <v>1358867491.975827</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>0.436</v>
       </c>
       <c r="B220" t="n">
-        <v>1830.011041247037</v>
+        <v>1359.549116754463</v>
       </c>
       <c r="C220" t="n">
-        <v>1830011041.247037</v>
+        <v>1359549116.754463</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>0.438</v>
       </c>
       <c r="B221" t="n">
-        <v>1830.907839485031</v>
+        <v>1360.227964894932</v>
       </c>
       <c r="C221" t="n">
-        <v>1830907839.485031</v>
+        <v>1360227964.894932</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>0.44</v>
       </c>
       <c r="B222" t="n">
-        <v>1831.800996901407</v>
+        <v>1360.904060296018</v>
       </c>
       <c r="C222" t="n">
-        <v>1831800996.901407</v>
+        <v>1360904060.296018</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>0.442</v>
       </c>
       <c r="B223" t="n">
-        <v>1832.69054469245</v>
+        <v>1361.57742654344</v>
       </c>
       <c r="C223" t="n">
-        <v>1832690544.69245</v>
+        <v>1361577426.54344</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>0.444</v>
       </c>
       <c r="B224" t="n">
-        <v>1833.576513647752</v>
+        <v>1362.248086915351</v>
       </c>
       <c r="C224" t="n">
-        <v>1833576513.647752</v>
+        <v>1362248086.915351</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>0.446</v>
       </c>
       <c r="B225" t="n">
-        <v>1834.458934157318</v>
+        <v>1362.916064387705</v>
       </c>
       <c r="C225" t="n">
-        <v>1834458934.157318</v>
+        <v>1362916064.387705</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>0.448</v>
       </c>
       <c r="B226" t="n">
-        <v>1835.337836218509</v>
+        <v>1363.581381639522</v>
       </c>
       <c r="C226" t="n">
-        <v>1835337836.218508</v>
+        <v>1363581381.639522</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>0.45</v>
       </c>
       <c r="B227" t="n">
-        <v>1836.213249442843</v>
+        <v>1364.244061058024</v>
       </c>
       <c r="C227" t="n">
-        <v>1836213249.442843</v>
+        <v>1364244061.058024</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>0.452</v>
       </c>
       <c r="B228" t="n">
-        <v>1837.085203062643</v>
+        <v>1364.904124743668</v>
       </c>
       <c r="C228" t="n">
-        <v>1837085203.062643</v>
+        <v>1364904124.743669</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>0.454</v>
       </c>
       <c r="B229" t="n">
-        <v>1837.953725937542</v>
+        <v>1365.561594515068</v>
       </c>
       <c r="C229" t="n">
-        <v>1837953725.937542</v>
+        <v>1365561594.515068</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>0.456</v>
       </c>
       <c r="B230" t="n">
-        <v>1838.818846560848</v>
+        <v>1366.21649191381</v>
       </c>
       <c r="C230" t="n">
-        <v>1838818846.560848</v>
+        <v>1366216491.91381</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>0.458</v>
       </c>
       <c r="B231" t="n">
-        <v>1839.680593065775</v>
+        <v>1366.868838209168</v>
       </c>
       <c r="C231" t="n">
-        <v>1839680593.065775</v>
+        <v>1366868838.209168</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>0.46</v>
       </c>
       <c r="B232" t="n">
-        <v>1840.538993231542</v>
+        <v>1367.518654402715</v>
       </c>
       <c r="C232" t="n">
-        <v>1840538993.231542</v>
+        <v>1367518654.402715</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>0.462</v>
       </c>
       <c r="B233" t="n">
-        <v>1841.394074489338</v>
+        <v>1368.165961232839</v>
       </c>
       <c r="C233" t="n">
-        <v>1841394074.489338</v>
+        <v>1368165961.232839</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>0.464</v>
       </c>
       <c r="B234" t="n">
-        <v>1842.245863928167</v>
+        <v>1368.810779179164</v>
       </c>
       <c r="C234" t="n">
-        <v>1842245863.928167</v>
+        <v>1368810779.179164</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>0.466</v>
       </c>
       <c r="B235" t="n">
-        <v>1843.094388300564</v>
+        <v>1369.453128466872</v>
       </c>
       <c r="C235" t="n">
-        <v>1843094388.300564</v>
+        <v>1369453128.466872</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>0.468</v>
       </c>
       <c r="B236" t="n">
-        <v>1843.939674028202</v>
+        <v>1370.093029070948</v>
       </c>
       <c r="C236" t="n">
-        <v>1843939674.028202</v>
+        <v>1370093029.070948</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>0.47</v>
       </c>
       <c r="B237" t="n">
-        <v>1844.781747207364</v>
+        <v>1370.73050072032</v>
       </c>
       <c r="C237" t="n">
-        <v>1844781747.207364</v>
+        <v>1370730500.72032</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>0.472</v>
       </c>
       <c r="B238" t="n">
-        <v>1845.620633614325</v>
+        <v>1371.365562901925</v>
       </c>
       <c r="C238" t="n">
-        <v>1845620633.614325</v>
+        <v>1371365562.901925</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>0.474</v>
       </c>
       <c r="B239" t="n">
-        <v>1846.456358710601</v>
+        <v>1371.998234864689</v>
       </c>
       <c r="C239" t="n">
-        <v>1846456358.710601</v>
+        <v>1371998234.864689</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>0.476</v>
       </c>
       <c r="B240" t="n">
-        <v>1847.288947648104</v>
+        <v>1372.628535623418</v>
       </c>
       <c r="C240" t="n">
-        <v>1847288947.648104</v>
+        <v>1372628535.623418</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>0.478</v>
       </c>
       <c r="B241" t="n">
-        <v>1848.118425274185</v>
+        <v>1373.256483962617</v>
       </c>
       <c r="C241" t="n">
-        <v>1848118425.274185</v>
+        <v>1373256483.962617</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>0.48</v>
       </c>
       <c r="B242" t="n">
-        <v>1848.944816136578</v>
+        <v>1373.882098440233</v>
       </c>
       <c r="C242" t="n">
-        <v>1848944816.136578</v>
+        <v>1373882098.440233</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>0.482</v>
       </c>
       <c r="B243" t="n">
-        <v>1849.768144488241</v>
+        <v>1374.505397391308</v>
       </c>
       <c r="C243" t="n">
-        <v>1849768144.48824</v>
+        <v>1374505397.391308</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>0.484</v>
       </c>
       <c r="B244" t="n">
-        <v>1850.588434292097</v>
+        <v>1375.126398931578</v>
       </c>
       <c r="C244" t="n">
-        <v>1850588434.292097</v>
+        <v>1375126398.931578</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>0.486</v>
       </c>
       <c r="B245" t="n">
-        <v>1851.405709225688</v>
+        <v>1375.745120960979</v>
       </c>
       <c r="C245" t="n">
-        <v>1851405709.225688</v>
+        <v>1375745120.960979</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>0.488</v>
       </c>
       <c r="B246" t="n">
-        <v>1852.219992685724</v>
+        <v>1376.361581167101</v>
       </c>
       <c r="C246" t="n">
-        <v>1852219992.685724</v>
+        <v>1376361581.167101</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>0.49</v>
       </c>
       <c r="B247" t="n">
-        <v>1853.031307792552</v>
+        <v>1376.975797028561</v>
       </c>
       <c r="C247" t="n">
-        <v>1853031307.792552</v>
+        <v>1376975797.028561</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>0.492</v>
       </c>
       <c r="B248" t="n">
-        <v>1853.839677394524</v>
+        <v>1377.587785818313</v>
       </c>
       <c r="C248" t="n">
-        <v>1853839677.394524</v>
+        <v>1377587785.818313</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>0.494</v>
       </c>
       <c r="B249" t="n">
-        <v>1854.645124072294</v>
+        <v>1378.197564606889</v>
       </c>
       <c r="C249" t="n">
-        <v>1854645124.072294</v>
+        <v>1378197564.606889</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>0.496</v>
       </c>
       <c r="B250" t="n">
-        <v>1855.447670143018</v>
+        <v>1378.805150265585</v>
       </c>
       <c r="C250" t="n">
-        <v>1855447670.143018</v>
+        <v>1378805150.265585</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>0.498</v>
       </c>
       <c r="B251" t="n">
-        <v>1856.247337664473</v>
+        <v>1379.410559469573</v>
       </c>
       <c r="C251" t="n">
-        <v>1856247337.664473</v>
+        <v>1379410559.469573</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>0.5</v>
       </c>
       <c r="B252" t="n">
-        <v>1857.044148439099</v>
+        <v>1380.013808700959</v>
       </c>
       <c r="C252" t="n">
-        <v>1857044148.439099</v>
+        <v>1380013808.700959</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>0.505</v>
       </c>
       <c r="B253" t="n">
-        <v>1859.023817929044</v>
+        <v>1381.512588355975</v>
       </c>
       <c r="C253" t="n">
-        <v>1859023817.929044</v>
+        <v>1381512588.355975</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>0.51</v>
       </c>
       <c r="B254" t="n">
-        <v>1860.986096814452</v>
+        <v>1382.998219000686</v>
       </c>
       <c r="C254" t="n">
-        <v>1860986096.814452</v>
+        <v>1382998219.000686</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>0.515</v>
       </c>
       <c r="B255" t="n">
-        <v>1862.931305837705</v>
+        <v>1384.470943105716</v>
       </c>
       <c r="C255" t="n">
-        <v>1862931305.837705</v>
+        <v>1384470943.105716</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>0.52</v>
       </c>
       <c r="B256" t="n">
-        <v>1864.85975678734</v>
+        <v>1385.930996371735</v>
       </c>
       <c r="C256" t="n">
-        <v>1864859756.78734</v>
+        <v>1385930996.371735</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>0.525</v>
       </c>
       <c r="B257" t="n">
-        <v>1866.771752831203</v>
+        <v>1387.378607981436</v>
       </c>
       <c r="C257" t="n">
-        <v>1866771752.831203</v>
+        <v>1387378607.981436</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>0.53</v>
       </c>
       <c r="B258" t="n">
-        <v>1868.667588834162</v>
+        <v>1388.814000839835</v>
       </c>
       <c r="C258" t="n">
-        <v>1868667588.834162</v>
+        <v>1388814000.839835</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>0.535</v>
       </c>
       <c r="B259" t="n">
-        <v>1870.547551661253</v>
+        <v>1390.237391803541</v>
       </c>
       <c r="C259" t="n">
-        <v>1870547551.661252</v>
+        <v>1390237391.803541</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>0.54</v>
       </c>
       <c r="B260" t="n">
-        <v>1872.411920467033</v>
+        <v>1391.648991899593</v>
       </c>
       <c r="C260" t="n">
-        <v>1872411920.467033</v>
+        <v>1391648991.899593</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>0.545</v>
       </c>
       <c r="B261" t="n">
-        <v>1874.260966971905</v>
+        <v>1393.049006534446</v>
       </c>
       <c r="C261" t="n">
-        <v>1874260966.971905</v>
+        <v>1393049006.534446</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>0.55</v>
       </c>
       <c r="B262" t="n">
-        <v>1876.094955726109</v>
+        <v>1394.437635693613</v>
       </c>
       <c r="C262" t="n">
-        <v>1876094955.726109</v>
+        <v>1394437635.693613</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>0.555</v>
       </c>
       <c r="B263" t="n">
-        <v>1877.914144362034</v>
+        <v>1395.815074132486</v>
       </c>
       <c r="C263" t="n">
-        <v>1877914144.362034</v>
+        <v>1395815074.132486</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B264" t="n">
-        <v>1879.718783835474</v>
+        <v>1397.181511558778</v>
       </c>
       <c r="C264" t="n">
-        <v>1879718783.835474</v>
+        <v>1397181511.558778</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B265" t="n">
-        <v>1881.509118656404</v>
+        <v>1398.537132807043</v>
       </c>
       <c r="C265" t="n">
-        <v>1881509118.656404</v>
+        <v>1398537132.807044</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>0.57</v>
       </c>
       <c r="B266" t="n">
-        <v>1883.28538710981</v>
+        <v>1399.882118005681</v>
       </c>
       <c r="C266" t="n">
-        <v>1883285387.10981</v>
+        <v>1399882118.005681</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>0.575</v>
       </c>
       <c r="B267" t="n">
-        <v>1885.047821467105</v>
+        <v>1401.216642736798</v>
       </c>
       <c r="C267" t="n">
-        <v>1885047821.467104</v>
+        <v>1401216642.736798</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>0.58</v>
       </c>
       <c r="B268" t="n">
-        <v>1886.796648188584</v>
+        <v>1402.540878189318</v>
       </c>
       <c r="C268" t="n">
-        <v>1886796648.188584</v>
+        <v>1402540878.189318</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>0.585</v>
       </c>
       <c r="B269" t="n">
-        <v>1888.532088117402</v>
+        <v>1403.85499130565</v>
       </c>
       <c r="C269" t="n">
-        <v>1888532088.117402</v>
+        <v>1403854991.30565</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>0.59</v>
       </c>
       <c r="B270" t="n">
-        <v>1890.254356665469</v>
+        <v>1405.159144922268</v>
       </c>
       <c r="C270" t="n">
-        <v>1890254356.665469</v>
+        <v>1405159144.922268</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>0.595</v>
       </c>
       <c r="B271" t="n">
-        <v>1891.963663991682</v>
+        <v>1406.45349790448</v>
       </c>
       <c r="C271" t="n">
-        <v>1891963663.991682</v>
+        <v>1406453497.90448</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>0.6</v>
       </c>
       <c r="B272" t="n">
-        <v>1893.660215172872</v>
+        <v>1407.738205275687</v>
       </c>
       <c r="C272" t="n">
-        <v>1893660215.172872</v>
+        <v>1407738205.275687</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>0.605</v>
       </c>
       <c r="B273" t="n">
-        <v>1895.344210367807</v>
+        <v>1409.013418341399</v>
       </c>
       <c r="C273" t="n">
-        <v>1895344210.367807</v>
+        <v>1409013418.341399</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>0.61</v>
       </c>
       <c r="B274" t="n">
-        <v>1897.015844974608</v>
+        <v>1410.279284808253</v>
       </c>
       <c r="C274" t="n">
-        <v>1897015844.974608</v>
+        <v>1410279284.808253</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>0.615</v>
       </c>
       <c r="B275" t="n">
-        <v>1898.675309781877</v>
+        <v>1411.535948898292</v>
       </c>
       <c r="C275" t="n">
-        <v>1898675309.781877</v>
+        <v>1411535948.898292</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>0.62</v>
       </c>
       <c r="B276" t="n">
-        <v>1900.322791113844</v>
+        <v>1412.783551458709</v>
       </c>
       <c r="C276" t="n">
-        <v>1900322791.113844</v>
+        <v>1412783551.458709</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>0.625</v>
       </c>
       <c r="B277" t="n">
-        <v>1901.958470969819</v>
+        <v>1414.022230067288</v>
       </c>
       <c r="C277" t="n">
-        <v>1901958470.96982</v>
+        <v>1414022230.067288</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>0.63</v>
       </c>
       <c r="B278" t="n">
-        <v>1903.58252715821</v>
+        <v>1415.25211913373</v>
       </c>
       <c r="C278" t="n">
-        <v>1903582527.15821</v>
+        <v>1415252119.13373</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>0.635</v>
       </c>
       <c r="B279" t="n">
-        <v>1905.195133425361</v>
+        <v>1416.473349997075</v>
       </c>
       <c r="C279" t="n">
-        <v>1905195133.425361</v>
+        <v>1416473349.997075</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>0.64</v>
       </c>
       <c r="B280" t="n">
-        <v>1906.796459579457</v>
+        <v>1417.686051019371</v>
       </c>
       <c r="C280" t="n">
-        <v>1906796459.579458</v>
+        <v>1417686051.019371</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>0.645</v>
       </c>
       <c r="B281" t="n">
-        <v>1908.386671609707</v>
+        <v>1418.890347675796</v>
       </c>
       <c r="C281" t="n">
-        <v>1908386671.609707</v>
+        <v>1418890347.675796</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>0.65</v>
       </c>
       <c r="B282" t="n">
-        <v>1909.965931801035</v>
+        <v>1420.086362641362</v>
       </c>
       <c r="C282" t="n">
-        <v>1909965931.801035</v>
+        <v>1420086362.641362</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>0.655</v>
       </c>
       <c r="B283" t="n">
-        <v>1911.534398844472</v>
+        <v>1421.274215874386</v>
       </c>
       <c r="C283" t="n">
-        <v>1911534398.844472</v>
+        <v>1421274215.874386</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>0.66</v>
       </c>
       <c r="B284" t="n">
-        <v>1913.092227943444</v>
+        <v>1422.45402469684</v>
       </c>
       <c r="C284" t="n">
-        <v>1913092227.943444</v>
+        <v>1422454024.69684</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>0.665</v>
       </c>
       <c r="B285" t="n">
-        <v>1914.639570916143</v>
+        <v>1423.62590387175</v>
       </c>
       <c r="C285" t="n">
-        <v>1914639570.916143</v>
+        <v>1423625903.87175</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>0.67</v>
       </c>
       <c r="B286" t="n">
-        <v>1916.176576294144</v>
+        <v>1424.789965677758</v>
       </c>
       <c r="C286" t="n">
-        <v>1916176576.294144</v>
+        <v>1424789965.677758</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>0.675</v>
       </c>
       <c r="B287" t="n">
-        <v>1917.703389417439</v>
+        <v>1425.946319980963</v>
       </c>
       <c r="C287" t="n">
-        <v>1917703389.417439</v>
+        <v>1425946319.980963</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>0.68</v>
       </c>
       <c r="B288" t="n">
-        <v>1919.220152526047</v>
+        <v>1427.095074304184</v>
       </c>
       <c r="C288" t="n">
-        <v>1919220152.526047</v>
+        <v>1427095074.304184</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B289" t="n">
-        <v>1920.727004848339</v>
+        <v>1428.236333893731</v>
       </c>
       <c r="C289" t="n">
-        <v>1920727004.848339</v>
+        <v>1428236333.893731</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B290" t="n">
-        <v>1922.224082686222</v>
+        <v>1429.370201783809</v>
       </c>
       <c r="C290" t="n">
-        <v>1922224082.686222</v>
+        <v>1429370201.783809</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>0.695</v>
       </c>
       <c r="B291" t="n">
-        <v>1923.711519497322</v>
+        <v>1430.496778858642</v>
       </c>
       <c r="C291" t="n">
-        <v>1923711519.497322</v>
+        <v>1430496778.858642</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>0.7</v>
       </c>
       <c r="B292" t="n">
-        <v>1925.189445974279</v>
+        <v>1431.616163912426</v>
       </c>
       <c r="C292" t="n">
-        <v>1925189445.974279</v>
+        <v>1431616163.912426</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>0.705</v>
       </c>
       <c r="B293" t="n">
-        <v>1926.657990121292</v>
+        <v>1432.72845370719</v>
       </c>
       <c r="C293" t="n">
-        <v>1926657990.121292</v>
+        <v>1432728453.70719</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>0.71</v>
       </c>
       <c r="B294" t="n">
-        <v>1928.117277328012</v>
+        <v>1433.833743028658</v>
       </c>
       <c r="C294" t="n">
-        <v>1928117277.328012</v>
+        <v>1433833743.028658</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>0.715</v>
       </c>
       <c r="B295" t="n">
-        <v>1929.567430440903</v>
+        <v>1434.932124740201</v>
       </c>
       <c r="C295" t="n">
-        <v>1929567430.440903</v>
+        <v>1434932124.740201</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>0.72</v>
       </c>
       <c r="B296" t="n">
-        <v>1931.008569832174</v>
+        <v>1436.023689834942</v>
       </c>
       <c r="C296" t="n">
-        <v>1931008569.832174</v>
+        <v>1436023689.834942</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>0.725</v>
       </c>
       <c r="B297" t="n">
-        <v>1932.440813466376</v>
+        <v>1437.108527486102</v>
       </c>
       <c r="C297" t="n">
-        <v>1932440813.466376</v>
+        <v>1437108527.486102</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>0.73</v>
       </c>
       <c r="B298" t="n">
-        <v>1933.864276964763</v>
+        <v>1438.186725095655</v>
       </c>
       <c r="C298" t="n">
-        <v>1933864276.964763</v>
+        <v>1438186725.095655</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>0.735</v>
       </c>
       <c r="B299" t="n">
-        <v>1935.279073667504</v>
+        <v>1439.258368341356</v>
       </c>
       <c r="C299" t="n">
-        <v>1935279073.667504</v>
+        <v>1439258368.341356</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>0.74</v>
       </c>
       <c r="B300" t="n">
-        <v>1936.685314693832</v>
+        <v>1440.323541222213</v>
       </c>
       <c r="C300" t="n">
-        <v>1936685314.693832</v>
+        <v>1440323541.222213</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>0.745</v>
       </c>
       <c r="B301" t="n">
-        <v>1938.083109000219</v>
+        <v>1441.382326102461</v>
       </c>
       <c r="C301" t="n">
-        <v>1938083109.000219</v>
+        <v>1441382326.102461</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>0.75</v>
       </c>
       <c r="B302" t="n">
-        <v>1939.472563436643</v>
+        <v>1442.434803754094</v>
       </c>
       <c r="C302" t="n">
-        <v>1939472563.436643</v>
+        <v>1442434803.754094</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>0.755</v>
       </c>
       <c r="B303" t="n">
-        <v>1940.853782801024</v>
+        <v>1443.481053398024</v>
       </c>
       <c r="C303" t="n">
-        <v>1940853782.801024</v>
+        <v>1443481053.398024</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>0.76</v>
       </c>
       <c r="B304" t="n">
-        <v>1942.226869891915</v>
+        <v>1444.5211527439</v>
       </c>
       <c r="C304" t="n">
-        <v>1942226869.891915</v>
+        <v>1444521152.7439</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>0.765</v>
       </c>
       <c r="B305" t="n">
-        <v>1943.591925559492</v>
+        <v>1445.555178028661</v>
       </c>
       <c r="C305" t="n">
-        <v>1943591925.559492</v>
+        <v>1445555178.028661</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>0.77</v>
       </c>
       <c r="B306" t="n">
-        <v>1944.949048754926</v>
+        <v>1446.583204053854</v>
       </c>
       <c r="C306" t="n">
-        <v>1944949048.754925</v>
+        <v>1446583204.053854</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>0.775</v>
       </c>
       <c r="B307" t="n">
-        <v>1946.298336578192</v>
+        <v>1447.605304221773</v>
       </c>
       <c r="C307" t="n">
-        <v>1946298336.578192</v>
+        <v>1447605304.221773</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>0.78</v>
       </c>
       <c r="B308" t="n">
-        <v>1947.639884324376</v>
+        <v>1448.621550570464</v>
       </c>
       <c r="C308" t="n">
-        <v>1947639884.324376</v>
+        <v>1448621550.570464</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>0.785</v>
       </c>
       <c r="B309" t="n">
-        <v>1948.973785528531</v>
+        <v>1449.632013807631</v>
       </c>
       <c r="C309" t="n">
-        <v>1948973785.528531</v>
+        <v>1449632013.807631</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>0.79</v>
       </c>
       <c r="B310" t="n">
-        <v>1950.300132009143</v>
+        <v>1450.636763343494</v>
       </c>
       <c r="C310" t="n">
-        <v>1950300132.009143</v>
+        <v>1450636763.343494</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>0.795</v>
       </c>
       <c r="B311" t="n">
-        <v>1951.619013910261</v>
+        <v>1451.635867322632</v>
       </c>
       <c r="C311" t="n">
-        <v>1951619013.910261</v>
+        <v>1451635867.322632</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>0.8</v>
       </c>
       <c r="B312" t="n">
-        <v>1952.930519742329</v>
+        <v>1452.629392654851</v>
       </c>
       <c r="C312" t="n">
-        <v>1952930519.742329</v>
+        <v>1452629392.654851</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>0.805</v>
       </c>
       <c r="B313" t="n">
-        <v>1954.234736421774</v>
+        <v>1453.617405045106</v>
       </c>
       <c r="C313" t="n">
-        <v>1954234736.421774</v>
+        <v>1453617405.045106</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B314" t="n">
-        <v>1955.531749309405</v>
+        <v>1454.599969022526</v>
       </c>
       <c r="C314" t="n">
-        <v>1955531749.309405</v>
+        <v>1454599969.022526</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B315" t="n">
-        <v>1956.821642247641</v>
+        <v>1455.577147968556</v>
       </c>
       <c r="C315" t="n">
-        <v>1956821642.247641</v>
+        <v>1455577147.968556</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>0.82</v>
       </c>
       <c r="B316" t="n">
-        <v>1958.104497596643</v>
+        <v>1456.54900414427</v>
       </c>
       <c r="C316" t="n">
-        <v>1958104497.596643</v>
+        <v>1456549004.14427</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>0.825</v>
       </c>
       <c r="B317" t="n">
-        <v>1959.38039626936</v>
+        <v>1457.515598716854</v>
       </c>
       <c r="C317" t="n">
-        <v>1959380396.26936</v>
+        <v>1457515598.716854</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>0.83</v>
       </c>
       <c r="B318" t="n">
-        <v>1960.649417765543</v>
+        <v>1458.476991785325</v>
       </c>
       <c r="C318" t="n">
-        <v>1960649417.765543</v>
+        <v>1458476991.785326</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>0.835</v>
       </c>
       <c r="B319" t="n">
-        <v>1961.911640204762</v>
+        <v>1459.433242405485</v>
       </c>
       <c r="C319" t="n">
-        <v>1961911640.204762</v>
+        <v>1459433242.405485</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>0.84</v>
       </c>
       <c r="B320" t="n">
-        <v>1963.167140358457</v>
+        <v>1460.384408614145</v>
       </c>
       <c r="C320" t="n">
-        <v>1963167140.358457</v>
+        <v>1460384408.614145</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>0.845</v>
       </c>
       <c r="B321" t="n">
-        <v>1964.415993681063</v>
+        <v>1461.330547452653</v>
       </c>
       <c r="C321" t="n">
-        <v>1964415993.681063</v>
+        <v>1461330547.452653</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>0.85</v>
       </c>
       <c r="B322" t="n">
-        <v>1965.65827434023</v>
+        <v>1462.271714989736</v>
       </c>
       <c r="C322" t="n">
-        <v>1965658274.34023</v>
+        <v>1462271714.989736</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>0.855</v>
       </c>
       <c r="B323" t="n">
-        <v>1966.894055246184</v>
+        <v>1463.207966343693</v>
       </c>
       <c r="C323" t="n">
-        <v>1966894055.246184</v>
+        <v>1463207966.343693</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>0.86</v>
       </c>
       <c r="B324" t="n">
-        <v>1968.123408080244</v>
+        <v>1464.139355703954</v>
       </c>
       <c r="C324" t="n">
-        <v>1968123408.080244</v>
+        <v>1464139355.703954</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>0.865</v>
       </c>
       <c r="B325" t="n">
-        <v>1969.34640332254</v>
+        <v>1465.065936352021</v>
       </c>
       <c r="C325" t="n">
-        <v>1969346403.322541</v>
+        <v>1465065936.352021</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>0.87</v>
       </c>
       <c r="B326" t="n">
-        <v>1970.56311027894</v>
+        <v>1465.98776068183</v>
       </c>
       <c r="C326" t="n">
-        <v>1970563110.27894</v>
+        <v>1465987760.681829</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>0.875</v>
       </c>
       <c r="B327" t="n">
-        <v>1971.773597107226</v>
+        <v>1466.904880219532</v>
       </c>
       <c r="C327" t="n">
-        <v>1971773597.107226</v>
+        <v>1466904880.219532</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>0.88</v>
       </c>
       <c r="B328" t="n">
-        <v>1972.977930842544</v>
+        <v>1467.817345642733</v>
       </c>
       <c r="C328" t="n">
-        <v>1972977930.842544</v>
+        <v>1467817345.642733</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>0.885</v>
       </c>
       <c r="B329" t="n">
-        <v>1974.176177422147</v>
+        <v>1468.725206799189</v>
       </c>
       <c r="C329" t="n">
-        <v>1974176177.422147</v>
+        <v>1468725206.799189</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>0.89</v>
       </c>
       <c r="B330" t="n">
-        <v>1975.368401709455</v>
+        <v>1469.628512725</v>
       </c>
       <c r="C330" t="n">
-        <v>1975368401.709455</v>
+        <v>1469628512.725</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>0.895</v>
       </c>
       <c r="B331" t="n">
-        <v>1976.554667517456</v>
+        <v>1470.527311662291</v>
       </c>
       <c r="C331" t="n">
-        <v>1976554667.517456</v>
+        <v>1470527311.662291</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>0.9</v>
       </c>
       <c r="B332" t="n">
-        <v>1977.735037631471</v>
+        <v>1471.421651076423</v>
       </c>
       <c r="C332" t="n">
-        <v>1977735037.63147</v>
+        <v>1471421651.076423</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>0.905</v>
       </c>
       <c r="B333" t="n">
-        <v>1978.909573831302</v>
+        <v>1472.311577672733</v>
       </c>
       <c r="C333" t="n">
-        <v>1978909573.831302</v>
+        <v>1472311577.672733</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>0.91</v>
       </c>
       <c r="B334" t="n">
-        <v>1980.078336912785</v>
+        <v>1473.197137412819</v>
       </c>
       <c r="C334" t="n">
-        <v>1980078336.912785</v>
+        <v>1473197137.412819</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>0.915</v>
       </c>
       <c r="B335" t="n">
-        <v>1981.241386708761</v>
+        <v>1474.0783755304</v>
       </c>
       <c r="C335" t="n">
-        <v>1981241386.708761</v>
+        <v>1474078375.5304</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>0.92</v>
       </c>
       <c r="B336" t="n">
-        <v>1982.398782109494</v>
+        <v>1474.95533654674</v>
       </c>
       <c r="C336" t="n">
-        <v>1982398782.109494</v>
+        <v>1474955336.546741</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>0.925</v>
       </c>
       <c r="B337" t="n">
-        <v>1983.550581082541</v>
+        <v>1475.828064285673</v>
       </c>
       <c r="C337" t="n">
-        <v>1983550581.082541</v>
+        <v>1475828064.285673</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>0.93</v>
       </c>
       <c r="B338" t="n">
-        <v>1984.696840692106</v>
+        <v>1476.696601888227</v>
       </c>
       <c r="C338" t="n">
-        <v>1984696840.692106</v>
+        <v>1476696601.888227</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B339" t="n">
-        <v>1985.837617117879</v>
+        <v>1477.560991826865</v>
       </c>
       <c r="C339" t="n">
-        <v>1985837617.117879</v>
+        <v>1477560991.826865</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B340" t="n">
-        <v>1986.972965673393</v>
+        <v>1478.42127591936</v>
       </c>
       <c r="C340" t="n">
-        <v>1986972965.673393</v>
+        <v>1478421275.91936</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>0.945</v>
       </c>
       <c r="B341" t="n">
-        <v>1988.102940823894</v>
+        <v>1479.2774953423</v>
       </c>
       <c r="C341" t="n">
-        <v>1988102940.823894</v>
+        <v>1479277495.3423</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>0.95</v>
       </c>
       <c r="B342" t="n">
-        <v>1989.227596203757</v>
+        <v>1480.129690644254</v>
       </c>
       <c r="C342" t="n">
-        <v>1989227596.203757</v>
+        <v>1480129690.644254</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>0.955</v>
       </c>
       <c r="B343" t="n">
-        <v>1990.346984633454</v>
+        <v>1480.977901758595</v>
       </c>
       <c r="C343" t="n">
-        <v>1990346984.633454</v>
+        <v>1480977901.758595</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>0.96</v>
       </c>
       <c r="B344" t="n">
-        <v>1991.461158136087</v>
+        <v>1481.822168015998</v>
       </c>
       <c r="C344" t="n">
-        <v>1991461158.136087</v>
+        <v>1481822168.015998</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>0.965</v>
       </c>
       <c r="B345" t="n">
-        <v>1992.570167953503</v>
+        <v>1482.662528156616</v>
       </c>
       <c r="C345" t="n">
-        <v>1992570167.953503</v>
+        <v>1482662528.156616</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>0.97</v>
       </c>
       <c r="B346" t="n">
-        <v>1993.674064562001</v>
+        <v>1483.499020341956</v>
       </c>
       <c r="C346" t="n">
-        <v>1993674064.562001</v>
+        <v>1483499020.341956</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>0.975</v>
       </c>
       <c r="B347" t="n">
-        <v>1994.772897687642</v>
+        <v>1484.331682166449</v>
       </c>
       <c r="C347" t="n">
-        <v>1994772897.687642</v>
+        <v>1484331682.166449</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>0.98</v>
       </c>
       <c r="B348" t="n">
-        <v>1995.866716321179</v>
+        <v>1485.160550668735</v>
       </c>
       <c r="C348" t="n">
-        <v>1995866716.321179</v>
+        <v>1485160550.668735</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>0.985</v>
       </c>
       <c r="B349" t="n">
-        <v>1996.955568732616</v>
+        <v>1485.985662342667</v>
       </c>
       <c r="C349" t="n">
-        <v>1996955568.732616</v>
+        <v>1485985662.342667</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>0.99</v>
       </c>
       <c r="B350" t="n">
-        <v>1998.039502485403</v>
+        <v>1486.807053148037</v>
       </c>
       <c r="C350" t="n">
-        <v>1998039502.485403</v>
+        <v>1486807053.148037</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>0.995</v>
       </c>
       <c r="B351" t="n">
-        <v>1999.118564450285</v>
+        <v>1487.624758521048</v>
       </c>
       <c r="C351" t="n">
-        <v>1999118564.450285</v>
+        <v>1487624758.521048</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="B352" t="n">
-        <v>2000.192800818809</v>
+        <v>1488.43881338452</v>
       </c>
       <c r="C352" t="n">
-        <v>2000192800.818809</v>
+        <v>1488438813.38452</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>1.005</v>
       </c>
       <c r="B353" t="n">
-        <v>2001.262257116502</v>
+        <v>1489.24925215785</v>
       </c>
       <c r="C353" t="n">
-        <v>2001262257.116503</v>
+        <v>1489249252.15785</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>1.01</v>
       </c>
       <c r="B354" t="n">
-        <v>2002.326978215733</v>
+        <v>1490.056108766734</v>
       </c>
       <c r="C354" t="n">
-        <v>2002326978.215733</v>
+        <v>1490056108.766735</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>1.015</v>
       </c>
       <c r="B355" t="n">
-        <v>2003.387008348255</v>
+        <v>1490.85941665265</v>
       </c>
       <c r="C355" t="n">
-        <v>2003387008.348255</v>
+        <v>1490859416.65265</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>1.02</v>
       </c>
       <c r="B356" t="n">
-        <v>2004.442391117459</v>
+        <v>1491.65920878211</v>
       </c>
       <c r="C356" t="n">
-        <v>2004442391.117459</v>
+        <v>1491659208.78211</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>1.025</v>
       </c>
       <c r="B357" t="n">
-        <v>2005.493169510323</v>
+        <v>1492.455517655703</v>
       </c>
       <c r="C357" t="n">
-        <v>2005493169.510323</v>
+        <v>1492455517.655703</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>1.03</v>
       </c>
       <c r="B358" t="n">
-        <v>2006.539385909082</v>
+        <v>1493.248375316908</v>
       </c>
       <c r="C358" t="n">
-        <v>2006539385.909082</v>
+        <v>1493248375.316908</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>1.035</v>
       </c>
       <c r="B359" t="n">
-        <v>2007.581082102625</v>
+        <v>1494.037813360708</v>
       </c>
       <c r="C359" t="n">
-        <v>2007581082.102625</v>
+        <v>1494037813.360708</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>1.04</v>
       </c>
       <c r="B360" t="n">
-        <v>2008.618299297614</v>
+        <v>1494.823862941999</v>
       </c>
       <c r="C360" t="n">
-        <v>2008618299.297614</v>
+        <v>1494823862.941999</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>1.045</v>
       </c>
       <c r="B361" t="n">
-        <v>2009.651078129352</v>
+        <v>1495.606554783799</v>
       </c>
       <c r="C361" t="n">
-        <v>2009651078.129352</v>
+        <v>1495606554.783799</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>1.05</v>
       </c>
       <c r="B362" t="n">
-        <v>2010.679458672391</v>
+        <v>1496.385919185268</v>
       </c>
       <c r="C362" t="n">
-        <v>2010679458.672391</v>
+        <v>1496385919.185268</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4426,10 @@
         <v>1.055</v>
       </c>
       <c r="B363" t="n">
-        <v>2011.703480450897</v>
+        <v>1497.161986029543</v>
       </c>
       <c r="C363" t="n">
-        <v>2011703480.450897</v>
+        <v>1497161986.029543</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4437,10 @@
         <v>1.06</v>
       </c>
       <c r="B364" t="n">
-        <v>2012.723182448774</v>
+        <v>1497.934784791385</v>
       </c>
       <c r="C364" t="n">
-        <v>2012723182.448774</v>
+        <v>1497934784.791385</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4448,10 @@
         <v>1.065</v>
       </c>
       <c r="B365" t="n">
-        <v>2013.738603119552</v>
+        <v>1498.704344544661</v>
       </c>
       <c r="C365" t="n">
-        <v>2013738603.119552</v>
+        <v>1498704344.544661</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4459,10 @@
         <v>1.07</v>
       </c>
       <c r="B366" t="n">
-        <v>2014.749780396059</v>
+        <v>1499.470693969644</v>
       </c>
       <c r="C366" t="n">
-        <v>2014749780.396059</v>
+        <v>1499470693.969644</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4470,10 @@
         <v>1.075</v>
       </c>
       <c r="B367" t="n">
-        <v>2015.756751699856</v>
+        <v>1500.233861360153</v>
       </c>
       <c r="C367" t="n">
-        <v>2015756751.699856</v>
+        <v>1500233861.360153</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4481,10 @@
         <v>1.08</v>
       </c>
       <c r="B368" t="n">
-        <v>2016.759553950475</v>
+        <v>1500.993874630529</v>
       </c>
       <c r="C368" t="n">
-        <v>2016759553.950475</v>
+        <v>1500993874.630529</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4492,10 @@
         <v>1.085</v>
       </c>
       <c r="B369" t="n">
-        <v>2017.758223574435</v>
+        <v>1501.750761322455</v>
       </c>
       <c r="C369" t="n">
-        <v>2017758223.574435</v>
+        <v>1501750761.322454</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4503,10 @@
         <v>1.09</v>
       </c>
       <c r="B370" t="n">
-        <v>2018.752796514064</v>
+        <v>1502.504548611616</v>
       </c>
       <c r="C370" t="n">
-        <v>2018752796.514064</v>
+        <v>1502504548.611616</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4514,10 @@
         <v>1.095</v>
       </c>
       <c r="B371" t="n">
-        <v>2019.743308236118</v>
+        <v>1503.255263314223</v>
       </c>
       <c r="C371" t="n">
-        <v>2019743308.236118</v>
+        <v>1503255263.314223</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4525,10 @@
         <v>1.1</v>
       </c>
       <c r="B372" t="n">
-        <v>2020.729793740213</v>
+        <v>1504.002931893378</v>
       </c>
       <c r="C372" t="n">
-        <v>2020729793.740213</v>
+        <v>1504002931.893378</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4536,10 @@
         <v>1.105</v>
       </c>
       <c r="B373" t="n">
-        <v>2021.712287567065</v>
+        <v>1504.747580465303</v>
       </c>
       <c r="C373" t="n">
-        <v>2021712287.567065</v>
+        <v>1504747580.465303</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4547,10 @@
         <v>1.11</v>
       </c>
       <c r="B374" t="n">
-        <v>2022.69082380655</v>
+        <v>1505.489234805439</v>
       </c>
       <c r="C374" t="n">
-        <v>2022690823.80655</v>
+        <v>1505489234.805439</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4558,10 @@
         <v>1.115</v>
       </c>
       <c r="B375" t="n">
-        <v>2023.665436105588</v>
+        <v>1506.227920354397</v>
       </c>
       <c r="C375" t="n">
-        <v>2023665436.105588</v>
+        <v>1506227920.354397</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>1.12</v>
       </c>
       <c r="B376" t="n">
-        <v>2024.636157675858</v>
+        <v>1506.963662223788</v>
       </c>
       <c r="C376" t="n">
-        <v>2024636157.675858</v>
+        <v>1506963662.223788</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4580,10 @@
         <v>1.125</v>
       </c>
       <c r="B377" t="n">
-        <v>2025.603021301333</v>
+        <v>1507.696485201927</v>
       </c>
       <c r="C377" t="n">
-        <v>2025603021.301333</v>
+        <v>1507696485.201927</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4591,10 @@
         <v>1.13</v>
       </c>
       <c r="B378" t="n">
-        <v>2026.566059345663</v>
+        <v>1508.426413759407</v>
       </c>
       <c r="C378" t="n">
-        <v>2026566059.345663</v>
+        <v>1508426413.759407</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4602,10 @@
         <v>1.135</v>
       </c>
       <c r="B379" t="n">
-        <v>2027.525303759397</v>
+        <v>1509.153472054554</v>
       </c>
       <c r="C379" t="n">
-        <v>2027525303.759397</v>
+        <v>1509153472.054554</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4613,10 @@
         <v>1.14</v>
       </c>
       <c r="B380" t="n">
-        <v>2028.480786087044</v>
+        <v>1509.877683938774</v>
       </c>
       <c r="C380" t="n">
-        <v>2028480786.087044</v>
+        <v>1509877683.938774</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4624,10 @@
         <v>1.145</v>
       </c>
       <c r="B381" t="n">
-        <v>2029.43253747399</v>
+        <v>1510.59907296177</v>
       </c>
       <c r="C381" t="n">
-        <v>2029432537.47399</v>
+        <v>1510599072.96177</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4635,10 @@
         <v>1.15</v>
       </c>
       <c r="B382" t="n">
-        <v>2030.38058867326</v>
+        <v>1511.317662376661</v>
       </c>
       <c r="C382" t="n">
-        <v>2030380588.673259</v>
+        <v>1511317662.376662</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4646,10 @@
         <v>1.155</v>
       </c>
       <c r="B383" t="n">
-        <v>2031.324970052144</v>
+        <v>1512.033475144987</v>
       </c>
       <c r="C383" t="n">
-        <v>2031324970.052144</v>
+        <v>1512033475.144987</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4657,10 @@
         <v>1.16</v>
       </c>
       <c r="B384" t="n">
-        <v>2032.265711598679</v>
+        <v>1512.746533941605</v>
       </c>
       <c r="C384" t="n">
-        <v>2032265711.598679</v>
+        <v>1512746533.941605</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4668,10 @@
         <v>1.165</v>
       </c>
       <c r="B385" t="n">
-        <v>2033.202842927997</v>
+        <v>1513.456861159493</v>
       </c>
       <c r="C385" t="n">
-        <v>2033202842.927997</v>
+        <v>1513456861.159492</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4679,10 @@
         <v>1.17</v>
       </c>
       <c r="B386" t="n">
-        <v>2034.136393288534</v>
+        <v>1514.164478914437</v>
       </c>
       <c r="C386" t="n">
-        <v>2034136393.288533</v>
+        <v>1514164478.914437</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4690,10 @@
         <v>1.175</v>
       </c>
       <c r="B387" t="n">
-        <v>2035.066391568116</v>
+        <v>1514.869409049639</v>
       </c>
       <c r="C387" t="n">
-        <v>2035066391.568116</v>
+        <v>1514869409.049639</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4701,10 @@
         <v>1.18</v>
       </c>
       <c r="B388" t="n">
-        <v>2035.99286629992</v>
+        <v>1515.571673140211</v>
       </c>
       <c r="C388" t="n">
-        <v>2035992866.299921</v>
+        <v>1515571673.140211</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4712,10 @@
         <v>1.185</v>
       </c>
       <c r="B389" t="n">
-        <v>2036.915845668306</v>
+        <v>1516.271292497592</v>
       </c>
       <c r="C389" t="n">
-        <v>2036915845.668306</v>
+        <v>1516271292.497592</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4723,10 @@
         <v>1.19</v>
       </c>
       <c r="B390" t="n">
-        <v>2037.835357514528</v>
+        <v>1516.968288173861</v>
       </c>
       <c r="C390" t="n">
-        <v>2037835357.514528</v>
+        <v>1516968288.173861</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4734,10 @@
         <v>1.195</v>
       </c>
       <c r="B391" t="n">
-        <v>2038.751429342335</v>
+        <v>1517.662680965973</v>
       </c>
       <c r="C391" t="n">
-        <v>2038751429.342335</v>
+        <v>1517662680.965973</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4745,10 @@
         <v>1.2</v>
       </c>
       <c r="B392" t="n">
-        <v>2039.664088323455</v>
+        <v>1518.354491419897</v>
       </c>
       <c r="C392" t="n">
-        <v>2039664088.323455</v>
+        <v>1518354491.419897</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4756,10 @@
         <v>1.205</v>
       </c>
       <c r="B393" t="n">
-        <v>2040.573361302961</v>
+        <v>1519.043739834681</v>
       </c>
       <c r="C393" t="n">
-        <v>2040573361.302961</v>
+        <v>1519043739.834681</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4767,10 @@
         <v>1.21</v>
       </c>
       <c r="B394" t="n">
-        <v>2041.47927480454</v>
+        <v>1519.730446266428</v>
       </c>
       <c r="C394" t="n">
-        <v>2041479274.80454</v>
+        <v>1519730446.266428</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4778,10 @@
         <v>1.215</v>
       </c>
       <c r="B395" t="n">
-        <v>2042.381855035644</v>
+        <v>1520.41463053219</v>
       </c>
       <c r="C395" t="n">
-        <v>2042381855.035644</v>
+        <v>1520414630.53219</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4789,10 @@
         <v>1.22</v>
       </c>
       <c r="B396" t="n">
-        <v>2043.281127892546</v>
+        <v>1521.096312213793</v>
       </c>
       <c r="C396" t="n">
-        <v>2043281127.892546</v>
+        <v>1521096312.213794</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4800,10 @@
         <v>1.225</v>
       </c>
       <c r="B397" t="n">
-        <v>2044.177118965291</v>
+        <v>1521.775510661575</v>
       </c>
       <c r="C397" t="n">
-        <v>2044177118.965291</v>
+        <v>1521775510.661576</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4811,10 @@
         <v>1.23</v>
       </c>
       <c r="B398" t="n">
-        <v>2045.06985354255</v>
+        <v>1522.452244998057</v>
       </c>
       <c r="C398" t="n">
-        <v>2045069853.54255</v>
+        <v>1522452244.998057</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4822,10 @@
         <v>1.235</v>
       </c>
       <c r="B399" t="n">
-        <v>2045.959356616374</v>
+        <v>1523.126534121534</v>
       </c>
       <c r="C399" t="n">
-        <v>2045959356.616374</v>
+        <v>1523126534.121534</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4833,10 @@
         <v>1.24</v>
       </c>
       <c r="B400" t="n">
-        <v>2046.845652886862</v>
+        <v>1523.798396709607</v>
       </c>
       <c r="C400" t="n">
-        <v>2046845652.886862</v>
+        <v>1523798396.709607</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4844,10 @@
         <v>1.245</v>
       </c>
       <c r="B401" t="n">
-        <v>2047.728766766725</v>
+        <v>1524.467851222629</v>
       </c>
       <c r="C401" t="n">
-        <v>2047728766.766725</v>
+        <v>1524467851.222629</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4855,10 @@
         <v>1.25</v>
       </c>
       <c r="B402" t="n">
-        <v>2048.608722385777</v>
+        <v>1525.134915907101</v>
       </c>
       <c r="C402" t="n">
-        <v>2048608722.385777</v>
+        <v>1525134915.9071</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4866,10 @@
         <v>1.255</v>
       </c>
       <c r="B403" t="n">
-        <v>2049.48554359532</v>
+        <v>1525.799608798984</v>
       </c>
       <c r="C403" t="n">
-        <v>2049485543.59532</v>
+        <v>1525799608.798984</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4877,10 @@
         <v>1.26</v>
       </c>
       <c r="B404" t="n">
-        <v>2050.359253972457</v>
+        <v>1526.461947726965</v>
       </c>
       <c r="C404" t="n">
-        <v>2050359253.972457</v>
+        <v>1526461947.726965</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4888,10 @@
         <v>1.265</v>
       </c>
       <c r="B405" t="n">
-        <v>2051.229876824318</v>
+        <v>1527.121950315644</v>
       </c>
       <c r="C405" t="n">
-        <v>2051229876.824318</v>
+        <v>1527121950.315644</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4899,10 @@
         <v>1.27</v>
       </c>
       <c r="B406" t="n">
-        <v>2052.097435192202</v>
+        <v>1527.779633988668</v>
       </c>
       <c r="C406" t="n">
-        <v>2052097435.192202</v>
+        <v>1527779633.988668</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4910,10 @@
         <v>1.275</v>
       </c>
       <c r="B407" t="n">
-        <v>2052.961951855641</v>
+        <v>1528.435015971801</v>
       </c>
       <c r="C407" t="n">
-        <v>2052961951.855641</v>
+        <v>1528435015.971801</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4921,10 @@
         <v>1.28</v>
       </c>
       <c r="B408" t="n">
-        <v>2053.823449336386</v>
+        <v>1529.088113295941</v>
       </c>
       <c r="C408" t="n">
-        <v>2053823449.336386</v>
+        <v>1529088113.295941</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4932,10 @@
         <v>1.285</v>
       </c>
       <c r="B409" t="n">
-        <v>2054.681949902319</v>
+        <v>1529.738942800073</v>
       </c>
       <c r="C409" t="n">
-        <v>2054681949.902319</v>
+        <v>1529738942.800073</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4943,10 @@
         <v>1.29</v>
       </c>
       <c r="B410" t="n">
-        <v>2055.537475571287</v>
+        <v>1530.387521134165</v>
       </c>
       <c r="C410" t="n">
-        <v>2055537475.571287</v>
+        <v>1530387521.134165</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4954,10 @@
         <v>1.295</v>
       </c>
       <c r="B411" t="n">
-        <v>2056.390048114868</v>
+        <v>1531.03386476202</v>
       </c>
       <c r="C411" t="n">
-        <v>2056390048.114868</v>
+        <v>1531033864.76202</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4965,10 @@
         <v>1.3</v>
       </c>
       <c r="B412" t="n">
-        <v>2057.23968906206</v>
+        <v>1531.67798996406</v>
       </c>
       <c r="C412" t="n">
-        <v>2057239689.06206</v>
+        <v>1531677989.96406</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4976,10 @@
         <v>1.305</v>
       </c>
       <c r="B413" t="n">
-        <v>2058.086419702908</v>
+        <v>1532.319912840069</v>
       </c>
       <c r="C413" t="n">
-        <v>2058086419.702908</v>
+        <v>1532319912.840069</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4987,10 @@
         <v>1.31</v>
       </c>
       <c r="B414" t="n">
-        <v>2058.930261092054</v>
+        <v>1532.959649311878</v>
       </c>
       <c r="C414" t="n">
-        <v>2058930261.092054</v>
+        <v>1532959649.311878</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4998,10 @@
         <v>1.315</v>
       </c>
       <c r="B415" t="n">
-        <v>2059.771234052233</v>
+        <v>1533.597215126002</v>
       </c>
       <c r="C415" t="n">
-        <v>2059771234.052233</v>
+        <v>1533597215.126002</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5009,10 @@
         <v>1.32</v>
       </c>
       <c r="B416" t="n">
-        <v>2060.609359177694</v>
+        <v>1534.23262585623</v>
       </c>
       <c r="C416" t="n">
-        <v>2060609359.177694</v>
+        <v>1534232625.85623</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5020,10 @@
         <v>1.325</v>
       </c>
       <c r="B417" t="n">
-        <v>2061.44465683756</v>
+        <v>1534.865896906165</v>
       </c>
       <c r="C417" t="n">
-        <v>2061444656.83756</v>
+        <v>1534865896.906165</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5031,10 @@
         <v>1.33</v>
       </c>
       <c r="B418" t="n">
-        <v>2062.277147179127</v>
+        <v>1535.497043511717</v>
       </c>
       <c r="C418" t="n">
-        <v>2062277147.179127</v>
+        <v>1535497043.511717</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5042,10 @@
         <v>1.335</v>
       </c>
       <c r="B419" t="n">
-        <v>2063.106850131108</v>
+        <v>1536.126080743551</v>
       </c>
       <c r="C419" t="n">
-        <v>2063106850.131108</v>
+        <v>1536126080.743551</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5053,10 @@
         <v>1.34</v>
       </c>
       <c r="B420" t="n">
-        <v>2063.933785406805</v>
+        <v>1536.753023509489</v>
       </c>
       <c r="C420" t="n">
-        <v>2063933785.406805</v>
+        <v>1536753023.509489</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5064,10 @@
         <v>1.345</v>
       </c>
       <c r="B421" t="n">
-        <v>2064.757972507236</v>
+        <v>1537.377886556875</v>
       </c>
       <c r="C421" t="n">
-        <v>2064757972.507236</v>
+        <v>1537377886.556875</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5075,10 @@
         <v>1.35</v>
       </c>
       <c r="B422" t="n">
-        <v>2065.579430724197</v>
+        <v>1538.000684474883</v>
       </c>
       <c r="C422" t="n">
-        <v>2065579430.724197</v>
+        <v>1538000684.474883</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5086,10 @@
         <v>1.355</v>
       </c>
       <c r="B423" t="n">
-        <v>2066.398179143273</v>
+        <v>1538.621431696796</v>
       </c>
       <c r="C423" t="n">
-        <v>2066398179.143273</v>
+        <v>1538621431.696796</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5097,10 @@
         <v>1.36</v>
       </c>
       <c r="B424" t="n">
-        <v>2067.214236646793</v>
+        <v>1539.240142502244</v>
       </c>
       <c r="C424" t="n">
-        <v>2067214236.646793</v>
+        <v>1539240142.502244</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5108,10 @@
         <v>1.365</v>
       </c>
       <c r="B425" t="n">
-        <v>2068.027621916732</v>
+        <v>1539.856831019389</v>
       </c>
       <c r="C425" t="n">
-        <v>2068027621.916732</v>
+        <v>1539856831.019389</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5119,10 @@
         <v>1.37</v>
       </c>
       <c r="B426" t="n">
-        <v>2068.83835343756</v>
+        <v>1540.471511227086</v>
       </c>
       <c r="C426" t="n">
-        <v>2068838353.43756</v>
+        <v>1540471511.227086</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5130,10 @@
         <v>1.375</v>
       </c>
       <c r="B427" t="n">
-        <v>2069.646449499043</v>
+        <v>1541.084196956997</v>
       </c>
       <c r="C427" t="n">
-        <v>2069646449.499043</v>
+        <v>1541084196.956997</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5141,10 @@
         <v>1.38</v>
       </c>
       <c r="B428" t="n">
-        <v>2070.451928198996</v>
+        <v>1541.694901895667</v>
       </c>
       <c r="C428" t="n">
-        <v>2070451928.198997</v>
+        <v>1541694901.895667</v>
       </c>
     </row>
     <row r="429">
@@ -5152,10 +5152,10 @@
         <v>1.385</v>
       </c>
       <c r="B429" t="n">
-        <v>2071.254807445978</v>
+        <v>1542.30363958657</v>
       </c>
       <c r="C429" t="n">
-        <v>2071254807.445978</v>
+        <v>1542303639.58657</v>
       </c>
     </row>
     <row r="430">
@@ -5163,10 +5163,10 @@
         <v>1.39</v>
       </c>
       <c r="B430" t="n">
-        <v>2072.055104961948</v>
+        <v>1542.910423432113</v>
       </c>
       <c r="C430" t="n">
-        <v>2072055104.961948</v>
+        <v>1542910423.432113</v>
       </c>
     </row>
     <row r="431">
@@ -5174,10 +5174,10 @@
         <v>1.395</v>
       </c>
       <c r="B431" t="n">
-        <v>2072.852838284875</v>
+        <v>1543.515266695607</v>
       </c>
       <c r="C431" t="n">
-        <v>2072852838.284875</v>
+        <v>1543515266.695607</v>
       </c>
     </row>
     <row r="432">
@@ -5185,10 +5185,10 @@
         <v>1.4</v>
       </c>
       <c r="B432" t="n">
-        <v>2073.648024771297</v>
+        <v>1544.118182503199</v>
       </c>
       <c r="C432" t="n">
-        <v>2073648024.771297</v>
+        <v>1544118182.503199</v>
       </c>
     </row>
     <row r="433">
@@ -5196,10 +5196,10 @@
         <v>1.405</v>
       </c>
       <c r="B433" t="n">
-        <v>2074.440681598834</v>
+        <v>1544.71918384578</v>
       </c>
       <c r="C433" t="n">
-        <v>2074440681.598834</v>
+        <v>1544719183.84578</v>
       </c>
     </row>
     <row r="434">
@@ -5207,10 +5207,10 @@
         <v>1.41</v>
       </c>
       <c r="B434" t="n">
-        <v>2075.230825768669</v>
+        <v>1545.318283580853</v>
       </c>
       <c r="C434" t="n">
-        <v>2075230825.768669</v>
+        <v>1545318283.580853</v>
       </c>
     </row>
     <row r="435">
@@ -5218,10 +5218,10 @@
         <v>1.415</v>
       </c>
       <c r="B435" t="n">
-        <v>2076.018474107972</v>
+        <v>1545.915494434366</v>
       </c>
       <c r="C435" t="n">
-        <v>2076018474.107972</v>
+        <v>1545915494.434366</v>
       </c>
     </row>
     <row r="436">
@@ -5229,10 +5229,10 @@
         <v>1.42</v>
       </c>
       <c r="B436" t="n">
-        <v>2076.803643272293</v>
+        <v>1546.510829002522</v>
       </c>
       <c r="C436" t="n">
-        <v>2076803643.272293</v>
+        <v>1546510829.002522</v>
       </c>
     </row>
     <row r="437">
@@ -5240,10 +5240,10 @@
         <v>1.425</v>
       </c>
       <c r="B437" t="n">
-        <v>2077.586349747902</v>
+        <v>1547.104299753551</v>
       </c>
       <c r="C437" t="n">
-        <v>2077586349.747902</v>
+        <v>1547104299.753551</v>
       </c>
     </row>
     <row r="438">
@@ -5251,10 +5251,10 @@
         <v>1.43</v>
       </c>
       <c r="B438" t="n">
-        <v>2078.366609854104</v>
+        <v>1547.695919029453</v>
       </c>
       <c r="C438" t="n">
-        <v>2078366609.854104</v>
+        <v>1547695919.029453</v>
       </c>
     </row>
     <row r="439">
@@ -5262,10 +5262,10 @@
         <v>1.435</v>
       </c>
       <c r="B439" t="n">
-        <v>2079.144439745503</v>
+        <v>1548.285699047714</v>
       </c>
       <c r="C439" t="n">
-        <v>2079144439.745503</v>
+        <v>1548285699.047714</v>
       </c>
     </row>
     <row r="440">
@@ -5273,10 +5273,10 @@
         <v>1.44</v>
       </c>
       <c r="B440" t="n">
-        <v>2079.91985541423</v>
+        <v>1548.873651902988</v>
       </c>
       <c r="C440" t="n">
-        <v>2079919855.41423</v>
+        <v>1548873651.902988</v>
       </c>
     </row>
     <row r="441">
@@ -5284,10 +5284,10 @@
         <v>1.445</v>
       </c>
       <c r="B441" t="n">
-        <v>2080.692872692137</v>
+        <v>1549.459789568758</v>
       </c>
       <c r="C441" t="n">
-        <v>2080692872.692137</v>
+        <v>1549459789.568758</v>
       </c>
     </row>
     <row r="442">
@@ -5295,10 +5295,10 @@
         <v>1.45</v>
       </c>
       <c r="B442" t="n">
-        <v>2081.463507252948</v>
+        <v>1550.044123898959</v>
       </c>
       <c r="C442" t="n">
-        <v>2081463507.252948</v>
+        <v>1550044123.898959</v>
       </c>
     </row>
     <row r="443">
@@ -5306,10 +5306,10 @@
         <v>1.455</v>
       </c>
       <c r="B443" t="n">
-        <v>2082.231774614379</v>
+        <v>1550.626666629582</v>
       </c>
       <c r="C443" t="n">
-        <v>2082231774.614379</v>
+        <v>1550626666.629582</v>
       </c>
     </row>
     <row r="444">
@@ -5317,10 +5317,10 @@
         <v>1.46</v>
       </c>
       <c r="B444" t="n">
-        <v>2082.997690140224</v>
+        <v>1551.20742938025</v>
       </c>
       <c r="C444" t="n">
-        <v>2082997690.140224</v>
+        <v>1551207429.38025</v>
       </c>
     </row>
     <row r="445">
@@ -5328,10 +5328,10 @@
         <v>1.465</v>
       </c>
       <c r="B445" t="n">
-        <v>2083.761269042394</v>
+        <v>1551.786423655758</v>
       </c>
       <c r="C445" t="n">
-        <v>2083761269.042394</v>
+        <v>1551786423.655758</v>
       </c>
     </row>
     <row r="446">
@@ -5339,10 +5339,10 @@
         <v>1.47</v>
       </c>
       <c r="B446" t="n">
-        <v>2084.52252638294</v>
+        <v>1552.363660847605</v>
       </c>
       <c r="C446" t="n">
-        <v>2084522526.38294</v>
+        <v>1552363660.847605</v>
       </c>
     </row>
     <row r="447">
@@ -5350,10 +5350,10 @@
         <v>1.475</v>
       </c>
       <c r="B447" t="n">
-        <v>2085.281477076023</v>
+        <v>1552.939152235483</v>
       </c>
       <c r="C447" t="n">
-        <v>2085281477.076023</v>
+        <v>1552939152.235483</v>
       </c>
     </row>
     <row r="448">
@@ -5361,10 +5361,10 @@
         <v>1.48</v>
       </c>
       <c r="B448" t="n">
-        <v>2086.038135889873</v>
+        <v>1553.512908988754</v>
       </c>
       <c r="C448" t="n">
-        <v>2086038135.889873</v>
+        <v>1553512908.988754</v>
       </c>
     </row>
     <row r="449">
@@ -5372,10 +5372,10 @@
         <v>1.485</v>
       </c>
       <c r="B449" t="n">
-        <v>2086.792517448694</v>
+        <v>1554.084942167894</v>
       </c>
       <c r="C449" t="n">
-        <v>2086792517.448694</v>
+        <v>1554084942.167894</v>
       </c>
     </row>
     <row r="450">
@@ -5383,10 +5383,10 @@
         <v>1.49</v>
       </c>
       <c r="B450" t="n">
-        <v>2087.544636234553</v>
+        <v>1554.655262725918</v>
       </c>
       <c r="C450" t="n">
-        <v>2087544636.234553</v>
+        <v>1554655262.725918</v>
       </c>
     </row>
     <row r="451">
@@ -5394,10 +5394,10 @@
         <v>1.495</v>
       </c>
       <c r="B451" t="n">
-        <v>2088.294506589232</v>
+        <v>1555.223881509781</v>
       </c>
       <c r="C451" t="n">
-        <v>2088294506.589232</v>
+        <v>1555223881.509781</v>
       </c>
     </row>
     <row r="452">
@@ -5405,10 +5405,10 @@
         <v>1.5</v>
       </c>
       <c r="B452" t="n">
-        <v>2089.04214271605</v>
+        <v>1555.790809261756</v>
       </c>
       <c r="C452" t="n">
-        <v>2089042142.716049</v>
+        <v>1555790809.261756</v>
       </c>
     </row>
     <row r="453">
@@ -5416,10 +5416,10 @@
         <v>1.505</v>
       </c>
       <c r="B453" t="n">
-        <v>2089.787558681655</v>
+        <v>1556.356056620788</v>
       </c>
       <c r="C453" t="n">
-        <v>2089787558.681655</v>
+        <v>1556356056.620788</v>
       </c>
     </row>
     <row r="454">
@@ -5427,10 +5427,10 @@
         <v>1.51</v>
       </c>
       <c r="B454" t="n">
-        <v>2090.530768417791</v>
+        <v>1556.91963412383</v>
       </c>
       <c r="C454" t="n">
-        <v>2090530768.417791</v>
+        <v>1556919634.12383</v>
       </c>
     </row>
     <row r="455">
@@ -5438,10 +5438,10 @@
         <v>1.515</v>
       </c>
       <c r="B455" t="n">
-        <v>2091.271785723031</v>
+        <v>1557.48155220715</v>
       </c>
       <c r="C455" t="n">
-        <v>2091271785.723031</v>
+        <v>1557481552.20715</v>
       </c>
     </row>
     <row r="456">
@@ -5449,10 +5449,10 @@
         <v>1.52</v>
       </c>
       <c r="B456" t="n">
-        <v>2092.010624264483</v>
+        <v>1558.041821207624</v>
       </c>
       <c r="C456" t="n">
-        <v>2092010624.264483</v>
+        <v>1558041821.207624</v>
       </c>
     </row>
     <row r="457">
@@ -5460,10 +5460,10 @@
         <v>1.525</v>
       </c>
       <c r="B457" t="n">
-        <v>2092.747297579473</v>
+        <v>1558.600451364009</v>
       </c>
       <c r="C457" t="n">
-        <v>2092747297.579473</v>
+        <v>1558600451.364009</v>
       </c>
     </row>
     <row r="458">
@@ -5471,10 +5471,10 @@
         <v>1.53</v>
       </c>
       <c r="B458" t="n">
-        <v>2093.481819077197</v>
+        <v>1559.157452818187</v>
       </c>
       <c r="C458" t="n">
-        <v>2093481819.077197</v>
+        <v>1559157452.818187</v>
       </c>
     </row>
     <row r="459">
@@ -5482,10 +5482,10 @@
         <v>1.535</v>
       </c>
       <c r="B459" t="n">
-        <v>2094.214202040345</v>
+        <v>1559.712835616397</v>
       </c>
       <c r="C459" t="n">
-        <v>2094214202.040345</v>
+        <v>1559712835.616397</v>
       </c>
     </row>
     <row r="460">
@@ -5493,10 +5493,10 @@
         <v>1.54</v>
       </c>
       <c r="B460" t="n">
-        <v>2094.944459626708</v>
+        <v>1560.266609710447</v>
       </c>
       <c r="C460" t="n">
-        <v>2094944459.626708</v>
+        <v>1560266609.710447</v>
       </c>
     </row>
     <row r="461">
@@ -5504,10 +5504,10 @@
         <v>1.545</v>
       </c>
       <c r="B461" t="n">
-        <v>2095.672604870746</v>
+        <v>1560.818784958901</v>
       </c>
       <c r="C461" t="n">
-        <v>2095672604.870746</v>
+        <v>1560818784.958901</v>
       </c>
     </row>
     <row r="462">
@@ -5515,10 +5515,10 @@
         <v>1.55</v>
       </c>
       <c r="B462" t="n">
-        <v>2096.398650685143</v>
+        <v>1561.369371128256</v>
       </c>
       <c r="C462" t="n">
-        <v>2096398650.685143</v>
+        <v>1561369371.128256</v>
       </c>
     </row>
     <row r="463">
@@ -5526,10 +5526,10 @@
         <v>1.555</v>
       </c>
       <c r="B463" t="n">
-        <v>2097.122609862335</v>
+        <v>1561.918377894088</v>
       </c>
       <c r="C463" t="n">
-        <v>2097122609.862335</v>
+        <v>1561918377.894088</v>
       </c>
     </row>
     <row r="464">
@@ -5537,10 +5537,10 @@
         <v>1.56</v>
       </c>
       <c r="B464" t="n">
-        <v>2097.844495076004</v>
+        <v>1562.465814842196</v>
       </c>
       <c r="C464" t="n">
-        <v>2097844495.076005</v>
+        <v>1562465814.842196</v>
       </c>
     </row>
     <row r="465">
@@ -5548,10 +5548,10 @@
         <v>1.565</v>
       </c>
       <c r="B465" t="n">
-        <v>2098.564318882568</v>
+        <v>1563.011691469715</v>
       </c>
       <c r="C465" t="n">
-        <v>2098564318.882568</v>
+        <v>1563011691.469715</v>
       </c>
     </row>
     <row r="466">
@@ -5559,10 +5559,10 @@
         <v>1.57</v>
       </c>
       <c r="B466" t="n">
-        <v>2099.282093722625</v>
+        <v>1563.556017186214</v>
       </c>
       <c r="C466" t="n">
-        <v>2099282093.722625</v>
+        <v>1563556017.186214</v>
       </c>
     </row>
     <row r="467">
@@ -5570,10 +5570,10 @@
         <v>1.575</v>
       </c>
       <c r="B467" t="n">
-        <v>2099.997831922395</v>
+        <v>1564.098801314786</v>
       </c>
       <c r="C467" t="n">
-        <v>2099997831.922395</v>
+        <v>1564098801.314786</v>
       </c>
     </row>
     <row r="468">
@@ -5581,10 +5581,10 @@
         <v>1.58</v>
       </c>
       <c r="B468" t="n">
-        <v>2100.711545695126</v>
+        <v>1564.640053093109</v>
       </c>
       <c r="C468" t="n">
-        <v>2100711545.695127</v>
+        <v>1564640053.093109</v>
       </c>
     </row>
     <row r="469">
@@ -5592,10 +5592,10 @@
         <v>1.585</v>
       </c>
       <c r="B469" t="n">
-        <v>2101.423247142485</v>
+        <v>1565.179781674497</v>
       </c>
       <c r="C469" t="n">
-        <v>2101423247.142485</v>
+        <v>1565179781.674497</v>
       </c>
     </row>
     <row r="470">
@@ -5603,10 +5603,10 @@
         <v>1.59</v>
       </c>
       <c r="B470" t="n">
-        <v>2102.132948255922</v>
+        <v>1565.717996128933</v>
       </c>
       <c r="C470" t="n">
-        <v>2102132948.255922</v>
+        <v>1565717996.128933</v>
       </c>
     </row>
     <row r="471">
@@ -5614,10 +5614,10 @@
         <v>1.595</v>
       </c>
       <c r="B471" t="n">
-        <v>2102.840660918022</v>
+        <v>1566.254705444091</v>
       </c>
       <c r="C471" t="n">
-        <v>2102840660.918021</v>
+        <v>1566254705.444091</v>
       </c>
     </row>
     <row r="472">
@@ -5625,10 +5625,10 @@
         <v>1.6</v>
       </c>
       <c r="B472" t="n">
-        <v>2103.546396903826</v>
+        <v>1566.789918526332</v>
       </c>
       <c r="C472" t="n">
-        <v>2103546396.903826</v>
+        <v>1566789918.526332</v>
       </c>
     </row>
     <row r="473">
@@ -5636,10 +5636,10 @@
         <v>1.605</v>
       </c>
       <c r="B473" t="n">
-        <v>2104.25016788214</v>
+        <v>1567.323644201696</v>
       </c>
       <c r="C473" t="n">
-        <v>2104250167.88214</v>
+        <v>1567323644.201696</v>
       </c>
     </row>
     <row r="474">
@@ -5647,10 +5647,10 @@
         <v>1.61</v>
       </c>
       <c r="B474" t="n">
-        <v>2104.951985416821</v>
+        <v>1567.855891216872</v>
       </c>
       <c r="C474" t="n">
-        <v>2104951985.416821</v>
+        <v>1567855891.216872</v>
       </c>
     </row>
     <row r="475">
@@ -5658,10 +5658,10 @@
         <v>1.615</v>
       </c>
       <c r="B475" t="n">
-        <v>2105.651860968037</v>
+        <v>1568.386668240155</v>
       </c>
       <c r="C475" t="n">
-        <v>2105651860.968037</v>
+        <v>1568386668.240155</v>
       </c>
     </row>
     <row r="476">
@@ -5669,10 +5669,10 @@
         <v>1.62</v>
       </c>
       <c r="B476" t="n">
-        <v>2106.349805893523</v>
+        <v>1568.915983862388</v>
       </c>
       <c r="C476" t="n">
-        <v>2106349805.893523</v>
+        <v>1568915983.862388</v>
       </c>
     </row>
     <row r="477">
@@ -5680,10 +5680,10 @@
         <v>1.625</v>
       </c>
       <c r="B477" t="n">
-        <v>2107.045831449805</v>
+        <v>1569.443846597893</v>
       </c>
       <c r="C477" t="n">
-        <v>2107045831.449805</v>
+        <v>1569443846.597893</v>
       </c>
     </row>
     <row r="478">
@@ -5691,10 +5691,10 @@
         <v>1.63</v>
       </c>
       <c r="B478" t="n">
-        <v>2107.739948793409</v>
+        <v>1569.970264885383</v>
       </c>
       <c r="C478" t="n">
-        <v>2107739948.793409</v>
+        <v>1569970264.885383</v>
       </c>
     </row>
     <row r="479">
@@ -5702,10 +5702,10 @@
         <v>1.635</v>
       </c>
       <c r="B479" t="n">
-        <v>2108.432168982055</v>
+        <v>1570.495247088867</v>
       </c>
       <c r="C479" t="n">
-        <v>2108432168.982055</v>
+        <v>1570495247.088866</v>
       </c>
     </row>
     <row r="480">
@@ -5713,10 +5713,10 @@
         <v>1.64</v>
       </c>
       <c r="B480" t="n">
-        <v>2109.122502975829</v>
+        <v>1571.018801498529</v>
       </c>
       <c r="C480" t="n">
-        <v>2109122502.975829</v>
+        <v>1571018801.498529</v>
       </c>
     </row>
     <row r="481">
@@ -5724,10 +5724,10 @@
         <v>1.645</v>
       </c>
       <c r="B481" t="n">
-        <v>2109.810961638342</v>
+        <v>1571.540936331614</v>
       </c>
       <c r="C481" t="n">
-        <v>2109810961.638342</v>
+        <v>1571540936.331614</v>
       </c>
     </row>
     <row r="482">
@@ -5735,10 +5735,10 @@
         <v>1.65</v>
       </c>
       <c r="B482" t="n">
-        <v>2110.497555737867</v>
+        <v>1572.061659733279</v>
       </c>
       <c r="C482" t="n">
-        <v>2110497555.737867</v>
+        <v>1572061659.733279</v>
       </c>
     </row>
     <row r="483">
@@ -5746,10 +5746,10 @@
         <v>1.655</v>
       </c>
       <c r="B483" t="n">
-        <v>2111.182295948462</v>
+        <v>1572.580979777446</v>
       </c>
       <c r="C483" t="n">
-        <v>2111182295.948462</v>
+        <v>1572580979.777446</v>
       </c>
     </row>
     <row r="484">
@@ -5757,10 +5757,10 @@
         <v>1.66</v>
       </c>
       <c r="B484" t="n">
-        <v>2111.865192851078</v>
+        <v>1573.098904467638</v>
       </c>
       <c r="C484" t="n">
-        <v>2111865192.851078</v>
+        <v>1573098904.467638</v>
       </c>
     </row>
     <row r="485">
@@ -5768,10 +5768,10 @@
         <v>1.665</v>
       </c>
       <c r="B485" t="n">
-        <v>2112.546256934645</v>
+        <v>1573.615441737803</v>
       </c>
       <c r="C485" t="n">
-        <v>2112546256.934645</v>
+        <v>1573615441.737803</v>
       </c>
     </row>
     <row r="486">
@@ -5779,10 +5779,10 @@
         <v>1.67</v>
       </c>
       <c r="B486" t="n">
-        <v>2113.225498597149</v>
+        <v>1574.130599453123</v>
       </c>
       <c r="C486" t="n">
-        <v>2113225498.597149</v>
+        <v>1574130599.453123</v>
       </c>
     </row>
     <row r="487">
@@ -5790,10 +5790,10 @@
         <v>1.675</v>
       </c>
       <c r="B487" t="n">
-        <v>2113.902928146688</v>
+        <v>1574.644385410818</v>
       </c>
       <c r="C487" t="n">
-        <v>2113902928.146688</v>
+        <v>1574644385.410818</v>
       </c>
     </row>
     <row r="488">
@@ -5801,10 +5801,10 @@
         <v>1.68</v>
       </c>
       <c r="B488" t="n">
-        <v>2114.578555802516</v>
+        <v>1575.156807340929</v>
       </c>
       <c r="C488" t="n">
-        <v>2114578555.802516</v>
+        <v>1575156807.340929</v>
       </c>
     </row>
     <row r="489">
@@ -5812,10 +5812,10 @@
         <v>1.685</v>
       </c>
       <c r="B489" t="n">
-        <v>2115.252391696069</v>
+        <v>1575.6678729071</v>
       </c>
       <c r="C489" t="n">
-        <v>2115252391.696069</v>
+        <v>1575667872.907099</v>
       </c>
     </row>
     <row r="490">
@@ -5823,10 +5823,10 @@
         <v>1.69</v>
       </c>
       <c r="B490" t="n">
-        <v>2115.924445871976</v>
+        <v>1576.177589707337</v>
       </c>
       <c r="C490" t="n">
-        <v>2115924445.871976</v>
+        <v>1576177589.707337</v>
       </c>
     </row>
     <row r="491">
@@ -5834,10 +5834,10 @@
         <v>1.695</v>
       </c>
       <c r="B491" t="n">
-        <v>2116.594728289065</v>
+        <v>1576.68596527477</v>
       </c>
       <c r="C491" t="n">
-        <v>2116594728.289065</v>
+        <v>1576685965.27477</v>
       </c>
     </row>
     <row r="492">
@@ -5845,10 +5845,10 @@
         <v>1.7</v>
       </c>
       <c r="B492" t="n">
-        <v>2117.263248821333</v>
+        <v>1577.193007078391</v>
       </c>
       <c r="C492" t="n">
-        <v>2117263248.821333</v>
+        <v>1577193007.078391</v>
       </c>
     </row>
     <row r="493">
@@ -5856,10 +5856,10 @@
         <v>1.71</v>
       </c>
       <c r="B493" t="n">
-        <v>2118.595043309099</v>
+        <v>1578.203118953865</v>
       </c>
       <c r="C493" t="n">
-        <v>2118595043.309099</v>
+        <v>1578203118.953865</v>
       </c>
     </row>
     <row r="494">
@@ -5867,10 +5867,10 @@
         <v>1.72</v>
       </c>
       <c r="B494" t="n">
-        <v>2119.919906667301</v>
+        <v>1579.207983830547</v>
       </c>
       <c r="C494" t="n">
-        <v>2119919906.667301</v>
+        <v>1579207983.830547</v>
       </c>
     </row>
     <row r="495">
@@ -5878,10 +5878,10 @@
         <v>1.73</v>
       </c>
       <c r="B495" t="n">
-        <v>2121.237914931407</v>
+        <v>1580.207659224867</v>
       </c>
       <c r="C495" t="n">
-        <v>2121237914.931406</v>
+        <v>1580207659.224867</v>
       </c>
     </row>
     <row r="496">
@@ -5889,10 +5889,10 @@
         <v>1.74</v>
       </c>
       <c r="B496" t="n">
-        <v>2122.549142869408</v>
+        <v>1581.202201694877</v>
       </c>
       <c r="C496" t="n">
-        <v>2122549142.869408</v>
+        <v>1581202201.694877</v>
       </c>
     </row>
     <row r="497">
@@ -5900,10 +5900,10 @@
         <v>1.75</v>
       </c>
       <c r="B497" t="n">
-        <v>2123.853664010095</v>
+        <v>1582.191666861625</v>
       </c>
       <c r="C497" t="n">
-        <v>2123853664.010095</v>
+        <v>1582191666.861625</v>
       </c>
     </row>
     <row r="498">
@@ -5911,10 +5911,10 @@
         <v>1.76</v>
       </c>
       <c r="B498" t="n">
-        <v>2125.151550670532</v>
+        <v>1583.176109429928</v>
       </c>
       <c r="C498" t="n">
-        <v>2125151550.670532</v>
+        <v>1583176109.429928</v>
       </c>
     </row>
     <row r="499">
@@ -5922,10 +5922,10 @@
         <v>1.77</v>
       </c>
       <c r="B499" t="n">
-        <v>2126.44287398278</v>
+        <v>1584.155583208572</v>
       </c>
       <c r="C499" t="n">
-        <v>2126442873.98278</v>
+        <v>1584155583.208572</v>
       </c>
     </row>
     <row r="500">
@@ -5933,10 +5933,10 @@
         <v>1.78</v>
       </c>
       <c r="B500" t="n">
-        <v>2127.72770391988</v>
+        <v>1585.130141129954</v>
       </c>
       <c r="C500" t="n">
-        <v>2127727703.91988</v>
+        <v>1585130141.129954</v>
       </c>
     </row>
     <row r="501">
@@ -5944,10 +5944,10 @@
         <v>1.79</v>
       </c>
       <c r="B501" t="n">
-        <v>2129.006109321122</v>
+        <v>1586.099835269184</v>
       </c>
       <c r="C501" t="n">
-        <v>2129006109.321122</v>
+        <v>1586099835.269184</v>
       </c>
     </row>
     <row r="502">
@@ -5955,10 +5955,10 @@
         <v>1.8</v>
       </c>
       <c r="B502" t="n">
-        <v>2130.278157916628</v>
+        <v>1587.064716862669</v>
       </c>
       <c r="C502" t="n">
-        <v>2130278157.916628</v>
+        <v>1587064716.862669</v>
       </c>
     </row>
     <row r="503">
@@ -5966,10 +5966,10 @@
         <v>1.81</v>
       </c>
       <c r="B503" t="n">
-        <v>2131.543916351273</v>
+        <v>1588.024836326197</v>
       </c>
       <c r="C503" t="n">
-        <v>2131543916.351273</v>
+        <v>1588024836.326197</v>
       </c>
     </row>
     <row r="504">
@@ -5977,10 +5977,10 @@
         <v>1.82</v>
       </c>
       <c r="B504" t="n">
-        <v>2132.803450207949</v>
+        <v>1588.980243272522</v>
       </c>
       <c r="C504" t="n">
-        <v>2132803450.207949</v>
+        <v>1588980243.272522</v>
       </c>
     </row>
     <row r="505">
@@ -5988,10 +5988,10 @@
         <v>1.83</v>
       </c>
       <c r="B505" t="n">
-        <v>2134.056824030219</v>
+        <v>1589.930986528493</v>
       </c>
       <c r="C505" t="n">
-        <v>2134056824.030219</v>
+        <v>1589930986.528493</v>
       </c>
     </row>
     <row r="506">
@@ -5999,10 +5999,10 @@
         <v>1.84</v>
       </c>
       <c r="B506" t="n">
-        <v>2135.304101344357</v>
+        <v>1590.877114151712</v>
       </c>
       <c r="C506" t="n">
-        <v>2135304101.344357</v>
+        <v>1590877114.151712</v>
       </c>
     </row>
     <row r="507">
@@ -6010,10 +6010,10 @@
         <v>1.85</v>
       </c>
       <c r="B507" t="n">
-        <v>2136.54534468081</v>
+        <v>1591.818673446763</v>
       </c>
       <c r="C507" t="n">
-        <v>2136545344.68081</v>
+        <v>1591818673.446763</v>
       </c>
     </row>
     <row r="508">
@@ -6021,10 +6021,10 @@
         <v>1.86</v>
       </c>
       <c r="B508" t="n">
-        <v>2137.780615595091</v>
+        <v>1592.755710981001</v>
       </c>
       <c r="C508" t="n">
-        <v>2137780615.595091</v>
+        <v>1592755710.981001</v>
       </c>
     </row>
     <row r="509">
@@ -6032,10 +6032,10 @@
         <v>1.87</v>
       </c>
       <c r="B509" t="n">
-        <v>2139.009974688126</v>
+        <v>1593.688272599939</v>
       </c>
       <c r="C509" t="n">
-        <v>2139009974.688126</v>
+        <v>1593688272.599939</v>
       </c>
     </row>
     <row r="510">
@@ -6043,10 +6043,10 @@
         <v>1.88</v>
       </c>
       <c r="B510" t="n">
-        <v>2140.233481626064</v>
+        <v>1594.616403442224</v>
       </c>
       <c r="C510" t="n">
-        <v>2140233481.626064</v>
+        <v>1594616403.442224</v>
       </c>
     </row>
     <row r="511">
@@ -6054,10 +6054,10 @@
         <v>1.89</v>
       </c>
       <c r="B511" t="n">
-        <v>2141.451195159586</v>
+        <v>1595.540147954229</v>
       </c>
       <c r="C511" t="n">
-        <v>2141451195.159586</v>
+        <v>1595540147.95423</v>
       </c>
     </row>
     <row r="512">
@@ -6065,10 +6065,10 @@
         <v>1.9</v>
       </c>
       <c r="B512" t="n">
-        <v>2142.6631731427</v>
+        <v>1596.459549904269</v>
       </c>
       <c r="C512" t="n">
-        <v>2142663173.1427</v>
+        <v>1596459549.904269</v>
       </c>
     </row>
     <row r="513">
@@ -6076,10 +6076,10 @@
         <v>1.91</v>
       </c>
       <c r="B513" t="n">
-        <v>2143.869472551061</v>
+        <v>1597.374652396446</v>
       </c>
       <c r="C513" t="n">
-        <v>2143869472.551061</v>
+        <v>1597374652.396446</v>
       </c>
     </row>
     <row r="514">
@@ -6087,10 +6087,10 @@
         <v>1.92</v>
       </c>
       <c r="B514" t="n">
-        <v>2145.070149499829</v>
+        <v>1598.285497884151</v>
       </c>
       <c r="C514" t="n">
-        <v>2145070149.499829</v>
+        <v>1598285497.884151</v>
       </c>
     </row>
     <row r="515">
@@ -6098,10 +6098,10 @@
         <v>1.93</v>
       </c>
       <c r="B515" t="n">
-        <v>2146.26525926106</v>
+        <v>1599.192128183213</v>
       </c>
       <c r="C515" t="n">
-        <v>2146265259.26106</v>
+        <v>1599192128.183213</v>
       </c>
     </row>
     <row r="516">
@@ -6109,10 +6109,10 @@
         <v>1.94</v>
       </c>
       <c r="B516" t="n">
-        <v>2147.454856280667</v>
+        <v>1600.094584484719</v>
       </c>
       <c r="C516" t="n">
-        <v>2147454856.280667</v>
+        <v>1600094584.48472</v>
       </c>
     </row>
     <row r="517">
@@ -6120,10 +6120,10 @@
         <v>1.95</v>
       </c>
       <c r="B517" t="n">
-        <v>2148.638994194951</v>
+        <v>1600.992907367516</v>
       </c>
       <c r="C517" t="n">
-        <v>2148638994.194952</v>
+        <v>1600992907.367516</v>
       </c>
     </row>
     <row r="518">
@@ -6131,10 +6131,10 @@
         <v>1.96</v>
       </c>
       <c r="B518" t="n">
-        <v>2149.817725846721</v>
+        <v>1601.88713681039</v>
       </c>
       <c r="C518" t="n">
-        <v>2149817725.846721</v>
+        <v>1601887136.81039</v>
       </c>
     </row>
     <row r="519">
@@ -6142,10 +6142,10 @@
         <v>1.97</v>
       </c>
       <c r="B519" t="n">
-        <v>2150.991103301008</v>
+        <v>1602.777312203955</v>
       </c>
       <c r="C519" t="n">
-        <v>2150991103.301008</v>
+        <v>1602777312.203955</v>
       </c>
     </row>
     <row r="520">
@@ -6153,10 +6153,10 @@
         <v>1.98</v>
       </c>
       <c r="B520" t="n">
-        <v>2152.159177860392</v>
+        <v>1603.663472362236</v>
       </c>
       <c r="C520" t="n">
-        <v>2152159177.860392</v>
+        <v>1603663472.362236</v>
       </c>
     </row>
     <row r="521">
@@ -6164,10 +6164,10 @@
         <v>1.99</v>
       </c>
       <c r="B521" t="n">
-        <v>2153.322000079953</v>
+        <v>1604.545655533973</v>
       </c>
       <c r="C521" t="n">
-        <v>2153322000.079953</v>
+        <v>1604545655.533973</v>
       </c>
     </row>
     <row r="522">
@@ -6175,10 +6175,10 @@
         <v>2</v>
       </c>
       <c r="B522" t="n">
-        <v>2154.479619781857</v>
+        <v>1605.423899413645</v>
       </c>
       <c r="C522" t="n">
-        <v>2154479619.781857</v>
+        <v>1605423899.413645</v>
       </c>
     </row>
     <row r="523">
@@ -6186,10 +6186,10 @@
         <v>2.02</v>
       </c>
       <c r="B523" t="n">
-        <v>2156.779447341777</v>
+        <v>1607.168717367693</v>
       </c>
       <c r="C523" t="n">
-        <v>2156779447.341777</v>
+        <v>1607168717.367693</v>
       </c>
     </row>
     <row r="524">
@@ -6197,10 +6197,10 @@
         <v>2.04</v>
       </c>
       <c r="B524" t="n">
-        <v>2159.059044991202</v>
+        <v>1608.898217097288</v>
       </c>
       <c r="C524" t="n">
-        <v>2159059044.991202</v>
+        <v>1608898217.097288</v>
       </c>
     </row>
     <row r="525">
@@ -6208,10 +6208,10 @@
         <v>2.06</v>
       </c>
       <c r="B525" t="n">
-        <v>2161.318786330003</v>
+        <v>1610.612681269081</v>
       </c>
       <c r="C525" t="n">
-        <v>2161318786.330003</v>
+        <v>1610612681.269081</v>
       </c>
     </row>
     <row r="526">
@@ -6219,10 +6219,10 @@
         <v>2.08</v>
       </c>
       <c r="B526" t="n">
-        <v>2163.559034515044</v>
+        <v>1612.312384652065</v>
       </c>
       <c r="C526" t="n">
-        <v>2163559034.515044</v>
+        <v>1612312384.652065</v>
       </c>
     </row>
     <row r="527">
@@ -6230,10 +6230,10 @@
         <v>2.1</v>
       </c>
       <c r="B527" t="n">
-        <v>2165.780142649246</v>
+        <v>1613.997594411722</v>
       </c>
       <c r="C527" t="n">
-        <v>2165780142.649246</v>
+        <v>1613997594.411722</v>
       </c>
     </row>
     <row r="528">
@@ -6241,10 +6241,10 @@
         <v>2.12</v>
       </c>
       <c r="B528" t="n">
-        <v>2167.982454152602</v>
+        <v>1615.668570390535</v>
       </c>
       <c r="C528" t="n">
-        <v>2167982454.152602</v>
+        <v>1615668570.390535</v>
       </c>
     </row>
     <row r="529">
@@ -6252,10 +6252,10 @@
         <v>2.14</v>
       </c>
       <c r="B529" t="n">
-        <v>2170.166303116144</v>
+        <v>1617.325565375611</v>
       </c>
       <c r="C529" t="n">
-        <v>2170166303.116144</v>
+        <v>1617325565.375611</v>
       </c>
     </row>
     <row r="530">
@@ -6263,10 +6263,10 @@
         <v>2.16</v>
       </c>
       <c r="B530" t="n">
-        <v>2172.332014639801</v>
+        <v>1618.968825354122</v>
       </c>
       <c r="C530" t="n">
-        <v>2172332014.639801</v>
+        <v>1618968825.354122</v>
       </c>
     </row>
     <row r="531">
@@ -6274,10 +6274,10 @@
         <v>2.18</v>
       </c>
       <c r="B531" t="n">
-        <v>2174.479905155014</v>
+        <v>1620.598589757231</v>
       </c>
       <c r="C531" t="n">
-        <v>2174479905.155014</v>
+        <v>1620598589.757231</v>
       </c>
     </row>
     <row r="532">
@@ -6285,10 +6285,10 @@
         <v>2.2</v>
       </c>
       <c r="B532" t="n">
-        <v>2176.610282732941</v>
+        <v>1622.215091693119</v>
       </c>
       <c r="C532" t="n">
-        <v>2176610282.732941</v>
+        <v>1622215091.693119</v>
       </c>
     </row>
     <row r="533">
@@ -6296,10 +6296,10 @@
         <v>2.22</v>
       </c>
       <c r="B533" t="n">
-        <v>2178.723447379008</v>
+        <v>1623.818558169691</v>
       </c>
       <c r="C533" t="n">
-        <v>2178723447.379008</v>
+        <v>1623818558.169691</v>
       </c>
     </row>
     <row r="534">
@@ -6307,10 +6307,10 @@
         <v>2.24</v>
       </c>
       <c r="B534" t="n">
-        <v>2180.819691314538</v>
+        <v>1625.409210307518</v>
       </c>
       <c r="C534" t="n">
-        <v>2180819691.314538</v>
+        <v>1625409210.307518</v>
       </c>
     </row>
     <row r="535">
@@ -6318,10 +6318,10 @@
         <v>2.26</v>
       </c>
       <c r="B535" t="n">
-        <v>2182.899299246121</v>
+        <v>1626.987263543509</v>
       </c>
       <c r="C535" t="n">
-        <v>2182899299.246121</v>
+        <v>1626987263.543509</v>
       </c>
     </row>
     <row r="536">
@@ -6329,10 +6329,10 @@
         <v>2.28</v>
       </c>
       <c r="B536" t="n">
-        <v>2184.962548623386</v>
+        <v>1628.552927825811</v>
       </c>
       <c r="C536" t="n">
-        <v>2184962548.623386</v>
+        <v>1628552927.825811</v>
       </c>
     </row>
     <row r="537">
@@ -6340,10 +6340,10 @@
         <v>2.3</v>
       </c>
       <c r="B537" t="n">
-        <v>2187.00970988574</v>
+        <v>1630.106407800378</v>
       </c>
       <c r="C537" t="n">
-        <v>2187009709.885739</v>
+        <v>1630106407.800378</v>
       </c>
     </row>
     <row r="538">
@@ -6351,10 +6351,10 @@
         <v>2.32</v>
       </c>
       <c r="B538" t="n">
-        <v>2189.041046698666</v>
+        <v>1631.64790298964</v>
       </c>
       <c r="C538" t="n">
-        <v>2189041046.698666</v>
+        <v>1631647902.98964</v>
       </c>
     </row>
     <row r="539">
@@ -6362,10 +6362,10 @@
         <v>2.34</v>
       </c>
       <c r="B539" t="n">
-        <v>2191.056816180089</v>
+        <v>1633.177607963663</v>
       </c>
       <c r="C539" t="n">
-        <v>2191056816.180089</v>
+        <v>1633177607.963663</v>
       </c>
     </row>
     <row r="540">
@@ -6373,10 +6373,10 @@
         <v>2.36</v>
       </c>
       <c r="B540" t="n">
-        <v>2193.057269117322</v>
+        <v>1634.695712504193</v>
       </c>
       <c r="C540" t="n">
-        <v>2193057269.117321</v>
+        <v>1634695712.504193</v>
       </c>
     </row>
     <row r="541">
@@ -6384,10 +6384,10 @@
         <v>2.38</v>
       </c>
       <c r="B541" t="n">
-        <v>2195.042650175039</v>
+        <v>1636.202401761915</v>
       </c>
       <c r="C541" t="n">
-        <v>2195042650.175039</v>
+        <v>1636202401.761915</v>
       </c>
     </row>
     <row r="542">
@@ -6395,10 +6395,10 @@
         <v>2.4</v>
       </c>
       <c r="B542" t="n">
-        <v>2197.013198094756</v>
+        <v>1637.697856407284</v>
       </c>
       <c r="C542" t="n">
-        <v>2197013198.094756</v>
+        <v>1637697856.407284</v>
       </c>
     </row>
     <row r="543">
@@ -6406,10 +6406,10 @@
         <v>2.42</v>
       </c>
       <c r="B543" t="n">
-        <v>2198.969145886182</v>
+        <v>1639.182252775225</v>
       </c>
       <c r="C543" t="n">
-        <v>2198969145.886182</v>
+        <v>1639182252.775225</v>
       </c>
     </row>
     <row r="544">
@@ -6417,10 +6417,10 @@
         <v>2.44</v>
       </c>
       <c r="B544" t="n">
-        <v>2200.910721010892</v>
+        <v>1640.655763004015</v>
       </c>
       <c r="C544" t="n">
-        <v>2200910721.010892</v>
+        <v>1640655763.004015</v>
       </c>
     </row>
     <row r="545">
@@ -6428,10 +6428,10 @@
         <v>2.46</v>
       </c>
       <c r="B545" t="n">
-        <v>2202.83814555864</v>
+        <v>1642.118555168607</v>
       </c>
       <c r="C545" t="n">
-        <v>2202838145.55864</v>
+        <v>1642118555.168607</v>
       </c>
     </row>
     <row r="546">
@@ -6439,10 +6439,10 @@
         <v>2.48</v>
       </c>
       <c r="B546" t="n">
-        <v>2204.751636416705</v>
+        <v>1643.570793408684</v>
       </c>
       <c r="C546" t="n">
-        <v>2204751636.416705</v>
+        <v>1643570793.408684</v>
       </c>
     </row>
     <row r="547">
@@ -6450,10 +6450,10 @@
         <v>2.5</v>
       </c>
       <c r="B547" t="n">
-        <v>2206.651405432564</v>
+        <v>1645.012638051676</v>
       </c>
       <c r="C547" t="n">
-        <v>2206651405.432564</v>
+        <v>1645012638.051676</v>
       </c>
     </row>
     <row r="548">
@@ -6461,10 +6461,10 @@
         <v>2.52</v>
       </c>
       <c r="B548" t="n">
-        <v>2208.537659570237</v>
+        <v>1646.444245730977</v>
       </c>
       <c r="C548" t="n">
-        <v>2208537659.570237</v>
+        <v>1646444245.730977</v>
       </c>
     </row>
     <row r="549">
@@ -6472,10 +6472,10 @@
         <v>2.54</v>
       </c>
       <c r="B549" t="n">
-        <v>2210.410601060577</v>
+        <v>1647.865769499603</v>
       </c>
       <c r="C549" t="n">
-        <v>2210410601.060577</v>
+        <v>1647865769.499603</v>
       </c>
     </row>
     <row r="550">
@@ -6483,10 +6483,10 @@
         <v>2.56</v>
       </c>
       <c r="B550" t="n">
-        <v>2212.27042754579</v>
+        <v>1649.277358939472</v>
       </c>
       <c r="C550" t="n">
-        <v>2212270427.54579</v>
+        <v>1649277358.939472</v>
       </c>
     </row>
     <row r="551">
@@ -6494,10 +6494,10 @@
         <v>2.58</v>
       </c>
       <c r="B551" t="n">
-        <v>2214.117332218458</v>
+        <v>1650.679160266541</v>
       </c>
       <c r="C551" t="n">
-        <v>2214117332.218458</v>
+        <v>1650679160.266541</v>
       </c>
     </row>
     <row r="552">
@@ -6505,10 +6505,10 @@
         <v>2.6</v>
       </c>
       <c r="B552" t="n">
-        <v>2215.951503955306</v>
+        <v>1652.071316431954</v>
       </c>
       <c r="C552" t="n">
-        <v>2215951503.955306</v>
+        <v>1652071316.431954</v>
       </c>
     </row>
     <row r="553">
@@ -6516,10 +6516,10 @@
         <v>2.62</v>
       </c>
       <c r="B553" t="n">
-        <v>2217.773127445952</v>
+        <v>1653.453967219418</v>
       </c>
       <c r="C553" t="n">
-        <v>2217773127.445952</v>
+        <v>1653453967.219418</v>
       </c>
     </row>
     <row r="554">
@@ -6527,10 +6527,10 @@
         <v>2.64</v>
       </c>
       <c r="B554" t="n">
-        <v>2219.582383316869</v>
+        <v>1654.827249338932</v>
       </c>
       <c r="C554" t="n">
-        <v>2219582383.316869</v>
+        <v>1654827249.338932</v>
       </c>
     </row>
     <row r="555">
@@ -6538,10 +6538,10 @@
         <v>2.66</v>
       </c>
       <c r="B555" t="n">
-        <v>2221.379448250764</v>
+        <v>1656.191296517082</v>
       </c>
       <c r="C555" t="n">
-        <v>2221379448.250764</v>
+        <v>1656191296.517082</v>
       </c>
     </row>
     <row r="556">
@@ -6549,10 +6549,10 @@
         <v>2.68</v>
       </c>
       <c r="B556" t="n">
-        <v>2223.164495101588</v>
+        <v>1657.546239584003</v>
       </c>
       <c r="C556" t="n">
-        <v>2223164495.101588</v>
+        <v>1657546239.584003</v>
       </c>
     </row>
     <row r="557">
@@ -6560,10 +6560,10 @@
         <v>2.7</v>
       </c>
       <c r="B557" t="n">
-        <v>2224.937693005359</v>
+        <v>1658.892206557196</v>
       </c>
       <c r="C557" t="n">
-        <v>2224937693.005359</v>
+        <v>1658892206.557196</v>
       </c>
     </row>
     <row r="558">
@@ -6571,10 +6571,10 @@
         <v>2.72</v>
       </c>
       <c r="B558" t="n">
-        <v>2226.69920748698</v>
+        <v>1660.229322722307</v>
       </c>
       <c r="C558" t="n">
-        <v>2226699207.48698</v>
+        <v>1660229322.722307</v>
       </c>
     </row>
     <row r="559">
@@ -6582,10 +6582,10 @@
         <v>2.74</v>
       </c>
       <c r="B559" t="n">
-        <v>2228.449200563233</v>
+        <v>1661.55771071102</v>
       </c>
       <c r="C559" t="n">
-        <v>2228449200.563233</v>
+        <v>1661557710.71102</v>
       </c>
     </row>
     <row r="560">
@@ -6593,10 +6593,10 @@
         <v>2.76</v>
       </c>
       <c r="B560" t="n">
-        <v>2230.187830842102</v>
+        <v>1662.877490576172</v>
       </c>
       <c r="C560" t="n">
-        <v>2230187830.842103</v>
+        <v>1662877490.576172</v>
       </c>
     </row>
     <row r="561">
@@ -6604,10 +6604,10 @@
         <v>2.78</v>
       </c>
       <c r="B561" t="n">
-        <v>2231.915253618596</v>
+        <v>1664.188779864216</v>
       </c>
       <c r="C561" t="n">
-        <v>2231915253.618596</v>
+        <v>1664188779.864216</v>
       </c>
     </row>
     <row r="562">
@@ -6615,10 +6615,10 @@
         <v>2.8</v>
       </c>
       <c r="B562" t="n">
-        <v>2233.631620967199</v>
+        <v>1665.491693685144</v>
       </c>
       <c r="C562" t="n">
-        <v>2233631620.967199</v>
+        <v>1665491693.685144</v>
       </c>
     </row>
     <row r="563">
@@ -6626,10 +6626,10 @@
         <v>2.82</v>
       </c>
       <c r="B563" t="n">
-        <v>2235.337081831109</v>
+        <v>1666.786344779981</v>
       </c>
       <c r="C563" t="n">
-        <v>2235337081.831109</v>
+        <v>1666786344.779981</v>
       </c>
     </row>
     <row r="564">
@@ -6637,10 +6637,10 @@
         <v>2.84</v>
       </c>
       <c r="B564" t="n">
-        <v>2237.031782108388</v>
+        <v>1668.072843585932</v>
       </c>
       <c r="C564" t="n">
-        <v>2237031782.108388</v>
+        <v>1668072843.585932</v>
       </c>
     </row>
     <row r="565">
@@ -6648,10 +6648,10 @@
         <v>2.86</v>
       </c>
       <c r="B565" t="n">
-        <v>2238.715864735156</v>
+        <v>1669.351298299305</v>
       </c>
       <c r="C565" t="n">
-        <v>2238715864.735156</v>
+        <v>1669351298.299304</v>
       </c>
     </row>
     <row r="566">
@@ -6659,10 +6659,10 @@
         <v>2.88</v>
       </c>
       <c r="B566" t="n">
-        <v>2240.389469765942</v>
+        <v>1670.621814936283</v>
       </c>
       <c r="C566" t="n">
-        <v>2240389469.765942</v>
+        <v>1670621814.936283</v>
       </c>
     </row>
     <row r="567">
@@ -6670,10 +6670,10 @@
         <v>2.9</v>
       </c>
       <c r="B567" t="n">
-        <v>2242.052734451323</v>
+        <v>1671.884497391642</v>
       </c>
       <c r="C567" t="n">
-        <v>2242052734.451323</v>
+        <v>1671884497.391642</v>
       </c>
     </row>
     <row r="568">
@@ -6681,10 +6681,10 @@
         <v>2.92</v>
       </c>
       <c r="B568" t="n">
-        <v>2243.705793312945</v>
+        <v>1673.139447495488</v>
       </c>
       <c r="C568" t="n">
-        <v>2243705793.312945</v>
+        <v>1673139447.495488</v>
       </c>
     </row>
     <row r="569">
@@ -6692,10 +6692,10 @@
         <v>2.94</v>
       </c>
       <c r="B569" t="n">
-        <v>2245.348778216042</v>
+        <v>1674.386765068111</v>
       </c>
       <c r="C569" t="n">
-        <v>2245348778.216043</v>
+        <v>1674386765.068111</v>
       </c>
     </row>
     <row r="570">
@@ -6703,10 +6703,10 @@
         <v>2.96</v>
       </c>
       <c r="B570" t="n">
-        <v>2246.981818439546</v>
+        <v>1675.626547973007</v>
       </c>
       <c r="C570" t="n">
-        <v>2246981818.439546</v>
+        <v>1675626547.973007</v>
       </c>
     </row>
     <row r="571">
@@ -6714,10 +6714,10 @@
         <v>2.98</v>
       </c>
       <c r="B571" t="n">
-        <v>2248.605040743891</v>
+        <v>1676.85889216816</v>
       </c>
       <c r="C571" t="n">
-        <v>2248605040.743891</v>
+        <v>1676858892.16816</v>
       </c>
     </row>
     <row r="572">
@@ -6725,10 +6725,10 @@
         <v>3</v>
       </c>
       <c r="B572" t="n">
-        <v>2250.218569436593</v>
+        <v>1678.08389175565</v>
       </c>
       <c r="C572" t="n">
-        <v>2250218569.436594</v>
+        <v>1678083891.75565</v>
       </c>
     </row>
   </sheetData>
